--- a/data/subtitles.xlsx
+++ b/data/subtitles.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoba10\OneDrive\Desktop\reto\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/94468aa6da851130/Desktop/reto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BD95C5B-B5FE-43AE-AAE7-14CFBAAD5F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{5BD95C5B-B5FE-43AE-AAE7-14CFBAAD5F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{025A2BA7-3DA2-4E79-A059-B064F8681AB9}"/>
   <bookViews>
-    <workbookView xWindow="11595" yWindow="660" windowWidth="17955" windowHeight="14295" xr2:uid="{45C893C2-06F0-41FD-AF92-AEC1E2F057F8}"/>
+    <workbookView xWindow="6105" yWindow="2880" windowWidth="19935" windowHeight="12300" xr2:uid="{45C893C2-06F0-41FD-AF92-AEC1E2F057F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -417,9 +417,6 @@
     <t>電伝虫</t>
   </si>
   <si>
-    <t>海賊機（ほこり）</t>
-  </si>
-  <si>
     <t>まっすぐ</t>
   </si>
   <si>
@@ -1320,9 +1317,6 @@
     <t>完敗</t>
   </si>
   <si>
-    <t>降り注ぐ追想の淡雪</t>
-  </si>
-  <si>
     <t>愛の拳</t>
   </si>
   <si>
@@ -3490,6 +3484,17 @@
   </si>
   <si>
     <t>ロックス海賊団</t>
+  </si>
+  <si>
+    <t>降りそそぐ追想の淡雪</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海賊旗（ほこり）</t>
+    <rPh sb="2" eb="3">
+      <t>ハタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -3861,8 +3866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F53FE31-6EB6-4278-B451-3AD274568D5D}">
   <dimension ref="A1:B1155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1142" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4888,7 +4893,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>127</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.4">
@@ -4896,7 +4901,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.4">
@@ -4904,7 +4909,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.4">
@@ -4912,7 +4917,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.4">
@@ -4920,7 +4925,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.4">
@@ -4928,7 +4933,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.4">
@@ -4936,7 +4941,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.4">
@@ -4944,7 +4949,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.4">
@@ -4952,7 +4957,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.4">
@@ -4960,7 +4965,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.4">
@@ -4968,7 +4973,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.4">
@@ -4976,7 +4981,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.4">
@@ -4984,7 +4989,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.4">
@@ -4992,7 +4997,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.4">
@@ -5000,7 +5005,7 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.4">
@@ -5008,7 +5013,7 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.4">
@@ -5016,7 +5021,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.4">
@@ -5024,7 +5029,7 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.4">
@@ -5032,7 +5037,7 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.4">
@@ -5040,7 +5045,7 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.4">
@@ -5048,7 +5053,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.4">
@@ -5056,7 +5061,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.4">
@@ -5064,7 +5069,7 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.4">
@@ -5072,7 +5077,7 @@
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.4">
@@ -5080,7 +5085,7 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.4">
@@ -5088,7 +5093,7 @@
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.4">
@@ -5096,7 +5101,7 @@
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.4">
@@ -5104,7 +5109,7 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.4">
@@ -5112,7 +5117,7 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.4">
@@ -5120,7 +5125,7 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.4">
@@ -5128,7 +5133,7 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.4">
@@ -5136,7 +5141,7 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.4">
@@ -5144,7 +5149,7 @@
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.4">
@@ -5152,7 +5157,7 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.4">
@@ -5160,7 +5165,7 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.4">
@@ -5168,7 +5173,7 @@
         <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.4">
@@ -5176,7 +5181,7 @@
         <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.4">
@@ -5184,7 +5189,7 @@
         <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.4">
@@ -5192,7 +5197,7 @@
         <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.4">
@@ -5200,7 +5205,7 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.4">
@@ -5208,7 +5213,7 @@
         <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.4">
@@ -5216,7 +5221,7 @@
         <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.4">
@@ -5224,7 +5229,7 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.4">
@@ -5232,7 +5237,7 @@
         <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.4">
@@ -5240,7 +5245,7 @@
         <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.4">
@@ -5248,7 +5253,7 @@
         <v>173</v>
       </c>
       <c r="B173" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.4">
@@ -5256,7 +5261,7 @@
         <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.4">
@@ -5264,7 +5269,7 @@
         <v>175</v>
       </c>
       <c r="B175" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.4">
@@ -5272,7 +5277,7 @@
         <v>176</v>
       </c>
       <c r="B176" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.4">
@@ -5280,7 +5285,7 @@
         <v>177</v>
       </c>
       <c r="B177" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.4">
@@ -5288,7 +5293,7 @@
         <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.4">
@@ -5296,7 +5301,7 @@
         <v>179</v>
       </c>
       <c r="B179" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.4">
@@ -5304,7 +5309,7 @@
         <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.4">
@@ -5312,7 +5317,7 @@
         <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.4">
@@ -5320,7 +5325,7 @@
         <v>182</v>
       </c>
       <c r="B182" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.4">
@@ -5328,7 +5333,7 @@
         <v>183</v>
       </c>
       <c r="B183" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.4">
@@ -5336,7 +5341,7 @@
         <v>184</v>
       </c>
       <c r="B184" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.4">
@@ -5344,7 +5349,7 @@
         <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.4">
@@ -5352,7 +5357,7 @@
         <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.4">
@@ -5360,7 +5365,7 @@
         <v>187</v>
       </c>
       <c r="B187" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.4">
@@ -5368,7 +5373,7 @@
         <v>188</v>
       </c>
       <c r="B188" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.4">
@@ -5384,7 +5389,7 @@
         <v>190</v>
       </c>
       <c r="B190" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.4">
@@ -5392,7 +5397,7 @@
         <v>191</v>
       </c>
       <c r="B191" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.4">
@@ -5400,7 +5405,7 @@
         <v>192</v>
       </c>
       <c r="B192" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.4">
@@ -5408,7 +5413,7 @@
         <v>193</v>
       </c>
       <c r="B193" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.4">
@@ -5416,7 +5421,7 @@
         <v>194</v>
       </c>
       <c r="B194" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.4">
@@ -5424,7 +5429,7 @@
         <v>195</v>
       </c>
       <c r="B195" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.4">
@@ -5432,7 +5437,7 @@
         <v>196</v>
       </c>
       <c r="B196" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.4">
@@ -5440,7 +5445,7 @@
         <v>197</v>
       </c>
       <c r="B197" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.4">
@@ -5448,7 +5453,7 @@
         <v>198</v>
       </c>
       <c r="B198" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.4">
@@ -5456,7 +5461,7 @@
         <v>199</v>
       </c>
       <c r="B199" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.4">
@@ -5464,7 +5469,7 @@
         <v>200</v>
       </c>
       <c r="B200" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.4">
@@ -5472,7 +5477,7 @@
         <v>201</v>
       </c>
       <c r="B201" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.4">
@@ -5480,7 +5485,7 @@
         <v>202</v>
       </c>
       <c r="B202" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.4">
@@ -5488,7 +5493,7 @@
         <v>203</v>
       </c>
       <c r="B203" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.4">
@@ -5496,7 +5501,7 @@
         <v>204</v>
       </c>
       <c r="B204" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.4">
@@ -5504,7 +5509,7 @@
         <v>205</v>
       </c>
       <c r="B205" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.4">
@@ -5512,7 +5517,7 @@
         <v>206</v>
       </c>
       <c r="B206" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.4">
@@ -5520,7 +5525,7 @@
         <v>207</v>
       </c>
       <c r="B207" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.4">
@@ -5528,7 +5533,7 @@
         <v>208</v>
       </c>
       <c r="B208" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.4">
@@ -5536,7 +5541,7 @@
         <v>209</v>
       </c>
       <c r="B209" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.4">
@@ -5544,7 +5549,7 @@
         <v>210</v>
       </c>
       <c r="B210" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.4">
@@ -5552,7 +5557,7 @@
         <v>211</v>
       </c>
       <c r="B211" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.4">
@@ -5560,7 +5565,7 @@
         <v>212</v>
       </c>
       <c r="B212" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.4">
@@ -5568,7 +5573,7 @@
         <v>213</v>
       </c>
       <c r="B213" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.4">
@@ -5576,7 +5581,7 @@
         <v>214</v>
       </c>
       <c r="B214" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.4">
@@ -5584,7 +5589,7 @@
         <v>215</v>
       </c>
       <c r="B215" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.4">
@@ -5592,7 +5597,7 @@
         <v>216</v>
       </c>
       <c r="B216" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.4">
@@ -5600,7 +5605,7 @@
         <v>217</v>
       </c>
       <c r="B217" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.4">
@@ -5608,7 +5613,7 @@
         <v>218</v>
       </c>
       <c r="B218" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.4">
@@ -5616,7 +5621,7 @@
         <v>219</v>
       </c>
       <c r="B219" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.4">
@@ -5624,7 +5629,7 @@
         <v>220</v>
       </c>
       <c r="B220" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.4">
@@ -5632,7 +5637,7 @@
         <v>221</v>
       </c>
       <c r="B221" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.4">
@@ -5640,7 +5645,7 @@
         <v>222</v>
       </c>
       <c r="B222" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.4">
@@ -5648,7 +5653,7 @@
         <v>223</v>
       </c>
       <c r="B223" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.4">
@@ -5656,7 +5661,7 @@
         <v>224</v>
       </c>
       <c r="B224" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.4">
@@ -5664,7 +5669,7 @@
         <v>225</v>
       </c>
       <c r="B225" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.4">
@@ -5672,7 +5677,7 @@
         <v>226</v>
       </c>
       <c r="B226" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.4">
@@ -5680,7 +5685,7 @@
         <v>227</v>
       </c>
       <c r="B227" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.4">
@@ -5688,7 +5693,7 @@
         <v>228</v>
       </c>
       <c r="B228" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.4">
@@ -5696,7 +5701,7 @@
         <v>229</v>
       </c>
       <c r="B229" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.4">
@@ -5704,7 +5709,7 @@
         <v>230</v>
       </c>
       <c r="B230" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.4">
@@ -5712,7 +5717,7 @@
         <v>231</v>
       </c>
       <c r="B231" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.4">
@@ -5720,7 +5725,7 @@
         <v>232</v>
       </c>
       <c r="B232" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.4">
@@ -5728,7 +5733,7 @@
         <v>233</v>
       </c>
       <c r="B233" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.4">
@@ -5736,7 +5741,7 @@
         <v>234</v>
       </c>
       <c r="B234" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.4">
@@ -5744,7 +5749,7 @@
         <v>235</v>
       </c>
       <c r="B235" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.4">
@@ -5752,7 +5757,7 @@
         <v>236</v>
       </c>
       <c r="B236" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.4">
@@ -5760,7 +5765,7 @@
         <v>237</v>
       </c>
       <c r="B237" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.4">
@@ -5768,7 +5773,7 @@
         <v>238</v>
       </c>
       <c r="B238" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.4">
@@ -5776,7 +5781,7 @@
         <v>239</v>
       </c>
       <c r="B239" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.4">
@@ -5784,7 +5789,7 @@
         <v>240</v>
       </c>
       <c r="B240" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.4">
@@ -5792,7 +5797,7 @@
         <v>241</v>
       </c>
       <c r="B241" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.4">
@@ -5800,7 +5805,7 @@
         <v>242</v>
       </c>
       <c r="B242" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.4">
@@ -5808,7 +5813,7 @@
         <v>243</v>
       </c>
       <c r="B243" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.4">
@@ -5816,7 +5821,7 @@
         <v>244</v>
       </c>
       <c r="B244" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.4">
@@ -5824,7 +5829,7 @@
         <v>245</v>
       </c>
       <c r="B245" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.4">
@@ -5832,7 +5837,7 @@
         <v>246</v>
       </c>
       <c r="B246" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.4">
@@ -5840,7 +5845,7 @@
         <v>247</v>
       </c>
       <c r="B247" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.4">
@@ -5848,7 +5853,7 @@
         <v>248</v>
       </c>
       <c r="B248" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.4">
@@ -5856,7 +5861,7 @@
         <v>249</v>
       </c>
       <c r="B249" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.4">
@@ -5864,7 +5869,7 @@
         <v>250</v>
       </c>
       <c r="B250" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.4">
@@ -5872,7 +5877,7 @@
         <v>251</v>
       </c>
       <c r="B251" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.4">
@@ -5880,7 +5885,7 @@
         <v>252</v>
       </c>
       <c r="B252" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.4">
@@ -5888,7 +5893,7 @@
         <v>253</v>
       </c>
       <c r="B253" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.4">
@@ -5896,7 +5901,7 @@
         <v>254</v>
       </c>
       <c r="B254" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.4">
@@ -5904,7 +5909,7 @@
         <v>255</v>
       </c>
       <c r="B255" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.4">
@@ -5912,7 +5917,7 @@
         <v>256</v>
       </c>
       <c r="B256" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.4">
@@ -5920,7 +5925,7 @@
         <v>257</v>
       </c>
       <c r="B257" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.4">
@@ -5928,7 +5933,7 @@
         <v>258</v>
       </c>
       <c r="B258" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.4">
@@ -5936,7 +5941,7 @@
         <v>259</v>
       </c>
       <c r="B259" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.4">
@@ -5944,7 +5949,7 @@
         <v>260</v>
       </c>
       <c r="B260" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.4">
@@ -5952,7 +5957,7 @@
         <v>261</v>
       </c>
       <c r="B261" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.4">
@@ -5960,7 +5965,7 @@
         <v>262</v>
       </c>
       <c r="B262" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.4">
@@ -5968,7 +5973,7 @@
         <v>263</v>
       </c>
       <c r="B263" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.4">
@@ -5976,7 +5981,7 @@
         <v>264</v>
       </c>
       <c r="B264" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.4">
@@ -5984,7 +5989,7 @@
         <v>265</v>
       </c>
       <c r="B265" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.4">
@@ -5992,7 +5997,7 @@
         <v>266</v>
       </c>
       <c r="B266" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.4">
@@ -6000,7 +6005,7 @@
         <v>267</v>
       </c>
       <c r="B267" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.4">
@@ -6008,7 +6013,7 @@
         <v>268</v>
       </c>
       <c r="B268" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.4">
@@ -6016,7 +6021,7 @@
         <v>269</v>
       </c>
       <c r="B269" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.4">
@@ -6024,7 +6029,7 @@
         <v>270</v>
       </c>
       <c r="B270" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.4">
@@ -6032,7 +6037,7 @@
         <v>271</v>
       </c>
       <c r="B271" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.4">
@@ -6040,7 +6045,7 @@
         <v>272</v>
       </c>
       <c r="B272" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.4">
@@ -6048,7 +6053,7 @@
         <v>273</v>
       </c>
       <c r="B273" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.4">
@@ -6056,7 +6061,7 @@
         <v>274</v>
       </c>
       <c r="B274" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.4">
@@ -6064,7 +6069,7 @@
         <v>275</v>
       </c>
       <c r="B275" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.4">
@@ -6072,7 +6077,7 @@
         <v>276</v>
       </c>
       <c r="B276" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.4">
@@ -6080,7 +6085,7 @@
         <v>277</v>
       </c>
       <c r="B277" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.4">
@@ -6088,7 +6093,7 @@
         <v>278</v>
       </c>
       <c r="B278" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.4">
@@ -6096,7 +6101,7 @@
         <v>279</v>
       </c>
       <c r="B279" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.4">
@@ -6104,7 +6109,7 @@
         <v>280</v>
       </c>
       <c r="B280" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.4">
@@ -6112,7 +6117,7 @@
         <v>281</v>
       </c>
       <c r="B281" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.4">
@@ -6120,7 +6125,7 @@
         <v>282</v>
       </c>
       <c r="B282" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.4">
@@ -6128,7 +6133,7 @@
         <v>283</v>
       </c>
       <c r="B283" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.4">
@@ -6136,7 +6141,7 @@
         <v>284</v>
       </c>
       <c r="B284" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.4">
@@ -6144,7 +6149,7 @@
         <v>285</v>
       </c>
       <c r="B285" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.4">
@@ -6152,7 +6157,7 @@
         <v>286</v>
       </c>
       <c r="B286" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.4">
@@ -6160,7 +6165,7 @@
         <v>287</v>
       </c>
       <c r="B287" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.4">
@@ -6168,7 +6173,7 @@
         <v>288</v>
       </c>
       <c r="B288" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.4">
@@ -6176,7 +6181,7 @@
         <v>289</v>
       </c>
       <c r="B289" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.4">
@@ -6184,7 +6189,7 @@
         <v>290</v>
       </c>
       <c r="B290" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.4">
@@ -6192,7 +6197,7 @@
         <v>291</v>
       </c>
       <c r="B291" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.4">
@@ -6200,7 +6205,7 @@
         <v>292</v>
       </c>
       <c r="B292" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.4">
@@ -6208,7 +6213,7 @@
         <v>293</v>
       </c>
       <c r="B293" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.4">
@@ -6216,7 +6221,7 @@
         <v>294</v>
       </c>
       <c r="B294" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.4">
@@ -6224,7 +6229,7 @@
         <v>295</v>
       </c>
       <c r="B295" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.4">
@@ -6232,7 +6237,7 @@
         <v>296</v>
       </c>
       <c r="B296" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.4">
@@ -6240,7 +6245,7 @@
         <v>297</v>
       </c>
       <c r="B297" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.4">
@@ -6248,7 +6253,7 @@
         <v>298</v>
       </c>
       <c r="B298" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.4">
@@ -6256,7 +6261,7 @@
         <v>299</v>
       </c>
       <c r="B299" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.4">
@@ -6264,7 +6269,7 @@
         <v>300</v>
       </c>
       <c r="B300" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.4">
@@ -6272,7 +6277,7 @@
         <v>301</v>
       </c>
       <c r="B301" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.4">
@@ -6280,7 +6285,7 @@
         <v>302</v>
       </c>
       <c r="B302" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.4">
@@ -6288,7 +6293,7 @@
         <v>303</v>
       </c>
       <c r="B303" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.4">
@@ -6296,7 +6301,7 @@
         <v>304</v>
       </c>
       <c r="B304" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.4">
@@ -6304,7 +6309,7 @@
         <v>305</v>
       </c>
       <c r="B305" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.4">
@@ -6312,7 +6317,7 @@
         <v>306</v>
       </c>
       <c r="B306" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.4">
@@ -6320,7 +6325,7 @@
         <v>307</v>
       </c>
       <c r="B307" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.4">
@@ -6328,7 +6333,7 @@
         <v>308</v>
       </c>
       <c r="B308" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.4">
@@ -6336,7 +6341,7 @@
         <v>309</v>
       </c>
       <c r="B309" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.4">
@@ -6344,7 +6349,7 @@
         <v>310</v>
       </c>
       <c r="B310" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.4">
@@ -6352,7 +6357,7 @@
         <v>311</v>
       </c>
       <c r="B311" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.4">
@@ -6360,7 +6365,7 @@
         <v>312</v>
       </c>
       <c r="B312" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.4">
@@ -6368,7 +6373,7 @@
         <v>313</v>
       </c>
       <c r="B313" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.4">
@@ -6376,7 +6381,7 @@
         <v>314</v>
       </c>
       <c r="B314" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.4">
@@ -6384,7 +6389,7 @@
         <v>315</v>
       </c>
       <c r="B315" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.4">
@@ -6392,7 +6397,7 @@
         <v>316</v>
       </c>
       <c r="B316" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.4">
@@ -6400,7 +6405,7 @@
         <v>317</v>
       </c>
       <c r="B317" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.4">
@@ -6408,7 +6413,7 @@
         <v>318</v>
       </c>
       <c r="B318" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.4">
@@ -6416,7 +6421,7 @@
         <v>319</v>
       </c>
       <c r="B319" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.4">
@@ -6424,7 +6429,7 @@
         <v>320</v>
       </c>
       <c r="B320" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.4">
@@ -6432,7 +6437,7 @@
         <v>321</v>
       </c>
       <c r="B321" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.4">
@@ -6440,7 +6445,7 @@
         <v>322</v>
       </c>
       <c r="B322" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.4">
@@ -6448,7 +6453,7 @@
         <v>323</v>
       </c>
       <c r="B323" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.4">
@@ -6456,7 +6461,7 @@
         <v>324</v>
       </c>
       <c r="B324" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.4">
@@ -6464,7 +6469,7 @@
         <v>325</v>
       </c>
       <c r="B325" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.4">
@@ -6472,7 +6477,7 @@
         <v>326</v>
       </c>
       <c r="B326" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.4">
@@ -6480,7 +6485,7 @@
         <v>327</v>
       </c>
       <c r="B327" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.4">
@@ -6488,7 +6493,7 @@
         <v>328</v>
       </c>
       <c r="B328" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.4">
@@ -6496,7 +6501,7 @@
         <v>329</v>
       </c>
       <c r="B329" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.4">
@@ -6504,7 +6509,7 @@
         <v>330</v>
       </c>
       <c r="B330" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.4">
@@ -6512,7 +6517,7 @@
         <v>331</v>
       </c>
       <c r="B331" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.4">
@@ -6520,7 +6525,7 @@
         <v>332</v>
       </c>
       <c r="B332" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.4">
@@ -6528,7 +6533,7 @@
         <v>333</v>
       </c>
       <c r="B333" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.4">
@@ -6536,7 +6541,7 @@
         <v>334</v>
       </c>
       <c r="B334" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.4">
@@ -6544,7 +6549,7 @@
         <v>335</v>
       </c>
       <c r="B335" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.4">
@@ -6552,7 +6557,7 @@
         <v>336</v>
       </c>
       <c r="B336" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.4">
@@ -6560,7 +6565,7 @@
         <v>337</v>
       </c>
       <c r="B337" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.4">
@@ -6568,7 +6573,7 @@
         <v>338</v>
       </c>
       <c r="B338" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.4">
@@ -6576,7 +6581,7 @@
         <v>339</v>
       </c>
       <c r="B339" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.4">
@@ -6584,7 +6589,7 @@
         <v>340</v>
       </c>
       <c r="B340" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.4">
@@ -6592,7 +6597,7 @@
         <v>341</v>
       </c>
       <c r="B341" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.4">
@@ -6600,7 +6605,7 @@
         <v>342</v>
       </c>
       <c r="B342" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.4">
@@ -6608,7 +6613,7 @@
         <v>343</v>
       </c>
       <c r="B343" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.4">
@@ -6616,7 +6621,7 @@
         <v>344</v>
       </c>
       <c r="B344" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.4">
@@ -6624,7 +6629,7 @@
         <v>345</v>
       </c>
       <c r="B345" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.4">
@@ -6632,7 +6637,7 @@
         <v>346</v>
       </c>
       <c r="B346" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.4">
@@ -6640,7 +6645,7 @@
         <v>347</v>
       </c>
       <c r="B347" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.4">
@@ -6648,7 +6653,7 @@
         <v>348</v>
       </c>
       <c r="B348" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.4">
@@ -6656,7 +6661,7 @@
         <v>349</v>
       </c>
       <c r="B349" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.4">
@@ -6664,7 +6669,7 @@
         <v>350</v>
       </c>
       <c r="B350" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.4">
@@ -6672,7 +6677,7 @@
         <v>351</v>
       </c>
       <c r="B351" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.4">
@@ -6680,7 +6685,7 @@
         <v>352</v>
       </c>
       <c r="B352" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.4">
@@ -6688,7 +6693,7 @@
         <v>353</v>
       </c>
       <c r="B353" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.4">
@@ -6696,7 +6701,7 @@
         <v>354</v>
       </c>
       <c r="B354" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.4">
@@ -6704,7 +6709,7 @@
         <v>355</v>
       </c>
       <c r="B355" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.4">
@@ -6712,7 +6717,7 @@
         <v>356</v>
       </c>
       <c r="B356" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.4">
@@ -6720,7 +6725,7 @@
         <v>357</v>
       </c>
       <c r="B357" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.4">
@@ -6728,7 +6733,7 @@
         <v>358</v>
       </c>
       <c r="B358" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.4">
@@ -6736,7 +6741,7 @@
         <v>359</v>
       </c>
       <c r="B359" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.4">
@@ -6744,7 +6749,7 @@
         <v>360</v>
       </c>
       <c r="B360" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.4">
@@ -6752,7 +6757,7 @@
         <v>361</v>
       </c>
       <c r="B361" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.4">
@@ -6760,7 +6765,7 @@
         <v>362</v>
       </c>
       <c r="B362" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.4">
@@ -6768,7 +6773,7 @@
         <v>363</v>
       </c>
       <c r="B363" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.4">
@@ -6776,7 +6781,7 @@
         <v>364</v>
       </c>
       <c r="B364" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.4">
@@ -6784,7 +6789,7 @@
         <v>365</v>
       </c>
       <c r="B365" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.4">
@@ -6792,7 +6797,7 @@
         <v>366</v>
       </c>
       <c r="B366" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.4">
@@ -6800,7 +6805,7 @@
         <v>367</v>
       </c>
       <c r="B367" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.4">
@@ -6808,7 +6813,7 @@
         <v>368</v>
       </c>
       <c r="B368" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.4">
@@ -6816,7 +6821,7 @@
         <v>369</v>
       </c>
       <c r="B369" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.4">
@@ -6824,7 +6829,7 @@
         <v>370</v>
       </c>
       <c r="B370" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.4">
@@ -6832,7 +6837,7 @@
         <v>371</v>
       </c>
       <c r="B371" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.4">
@@ -6840,7 +6845,7 @@
         <v>372</v>
       </c>
       <c r="B372" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.4">
@@ -6848,7 +6853,7 @@
         <v>373</v>
       </c>
       <c r="B373" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.4">
@@ -6856,7 +6861,7 @@
         <v>374</v>
       </c>
       <c r="B374" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.4">
@@ -6864,7 +6869,7 @@
         <v>375</v>
       </c>
       <c r="B375" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.4">
@@ -6872,7 +6877,7 @@
         <v>376</v>
       </c>
       <c r="B376" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.4">
@@ -6880,7 +6885,7 @@
         <v>377</v>
       </c>
       <c r="B377" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.4">
@@ -6888,7 +6893,7 @@
         <v>378</v>
       </c>
       <c r="B378" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.4">
@@ -6896,7 +6901,7 @@
         <v>379</v>
       </c>
       <c r="B379" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.4">
@@ -6904,7 +6909,7 @@
         <v>380</v>
       </c>
       <c r="B380" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.4">
@@ -6912,7 +6917,7 @@
         <v>381</v>
       </c>
       <c r="B381" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.4">
@@ -6920,7 +6925,7 @@
         <v>382</v>
       </c>
       <c r="B382" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.4">
@@ -6928,7 +6933,7 @@
         <v>383</v>
       </c>
       <c r="B383" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.4">
@@ -6936,7 +6941,7 @@
         <v>384</v>
       </c>
       <c r="B384" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.4">
@@ -6944,7 +6949,7 @@
         <v>385</v>
       </c>
       <c r="B385" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.4">
@@ -6952,7 +6957,7 @@
         <v>386</v>
       </c>
       <c r="B386" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.4">
@@ -6960,7 +6965,7 @@
         <v>387</v>
       </c>
       <c r="B387" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.4">
@@ -6968,7 +6973,7 @@
         <v>388</v>
       </c>
       <c r="B388" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.4">
@@ -6976,7 +6981,7 @@
         <v>389</v>
       </c>
       <c r="B389" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.4">
@@ -6984,7 +6989,7 @@
         <v>390</v>
       </c>
       <c r="B390" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.4">
@@ -6992,7 +6997,7 @@
         <v>391</v>
       </c>
       <c r="B391" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.4">
@@ -7000,7 +7005,7 @@
         <v>392</v>
       </c>
       <c r="B392" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.4">
@@ -7008,7 +7013,7 @@
         <v>393</v>
       </c>
       <c r="B393" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.4">
@@ -7016,7 +7021,7 @@
         <v>394</v>
       </c>
       <c r="B394" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.4">
@@ -7024,7 +7029,7 @@
         <v>395</v>
       </c>
       <c r="B395" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.4">
@@ -7032,7 +7037,7 @@
         <v>396</v>
       </c>
       <c r="B396" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.4">
@@ -7040,7 +7045,7 @@
         <v>397</v>
       </c>
       <c r="B397" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.4">
@@ -7048,7 +7053,7 @@
         <v>398</v>
       </c>
       <c r="B398" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.4">
@@ -7056,7 +7061,7 @@
         <v>399</v>
       </c>
       <c r="B399" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.4">
@@ -7064,7 +7069,7 @@
         <v>400</v>
       </c>
       <c r="B400" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.4">
@@ -7072,7 +7077,7 @@
         <v>401</v>
       </c>
       <c r="B401" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.4">
@@ -7080,7 +7085,7 @@
         <v>402</v>
       </c>
       <c r="B402" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.4">
@@ -7088,7 +7093,7 @@
         <v>403</v>
       </c>
       <c r="B403" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.4">
@@ -7096,7 +7101,7 @@
         <v>404</v>
       </c>
       <c r="B404" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.4">
@@ -7104,7 +7109,7 @@
         <v>405</v>
       </c>
       <c r="B405" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.4">
@@ -7112,7 +7117,7 @@
         <v>406</v>
       </c>
       <c r="B406" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.4">
@@ -7120,7 +7125,7 @@
         <v>407</v>
       </c>
       <c r="B407" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.4">
@@ -7128,7 +7133,7 @@
         <v>408</v>
       </c>
       <c r="B408" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.4">
@@ -7136,7 +7141,7 @@
         <v>409</v>
       </c>
       <c r="B409" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.4">
@@ -7144,7 +7149,7 @@
         <v>410</v>
       </c>
       <c r="B410" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.4">
@@ -7152,7 +7157,7 @@
         <v>411</v>
       </c>
       <c r="B411" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.4">
@@ -7160,7 +7165,7 @@
         <v>412</v>
       </c>
       <c r="B412" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.4">
@@ -7168,7 +7173,7 @@
         <v>413</v>
       </c>
       <c r="B413" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.4">
@@ -7176,7 +7181,7 @@
         <v>414</v>
       </c>
       <c r="B414" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.4">
@@ -7184,7 +7189,7 @@
         <v>415</v>
       </c>
       <c r="B415" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.4">
@@ -7192,7 +7197,7 @@
         <v>416</v>
       </c>
       <c r="B416" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.4">
@@ -7200,7 +7205,7 @@
         <v>417</v>
       </c>
       <c r="B417" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.4">
@@ -7208,7 +7213,7 @@
         <v>418</v>
       </c>
       <c r="B418" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.4">
@@ -7216,7 +7221,7 @@
         <v>419</v>
       </c>
       <c r="B419" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.4">
@@ -7224,7 +7229,7 @@
         <v>420</v>
       </c>
       <c r="B420" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.4">
@@ -7232,7 +7237,7 @@
         <v>421</v>
       </c>
       <c r="B421" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.4">
@@ -7240,7 +7245,7 @@
         <v>422</v>
       </c>
       <c r="B422" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.4">
@@ -7248,7 +7253,7 @@
         <v>423</v>
       </c>
       <c r="B423" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.4">
@@ -7256,7 +7261,7 @@
         <v>424</v>
       </c>
       <c r="B424" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.4">
@@ -7264,7 +7269,7 @@
         <v>425</v>
       </c>
       <c r="B425" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.4">
@@ -7272,7 +7277,7 @@
         <v>426</v>
       </c>
       <c r="B426" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.4">
@@ -7280,7 +7285,7 @@
         <v>427</v>
       </c>
       <c r="B427" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.4">
@@ -7288,7 +7293,7 @@
         <v>428</v>
       </c>
       <c r="B428" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.4">
@@ -7296,7 +7301,7 @@
         <v>429</v>
       </c>
       <c r="B429" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.4">
@@ -7304,7 +7309,7 @@
         <v>430</v>
       </c>
       <c r="B430" t="s">
-        <v>428</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.4">
@@ -7312,7 +7317,7 @@
         <v>431</v>
       </c>
       <c r="B431" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.4">
@@ -7320,7 +7325,7 @@
         <v>432</v>
       </c>
       <c r="B432" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.4">
@@ -7328,7 +7333,7 @@
         <v>433</v>
       </c>
       <c r="B433" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.4">
@@ -7336,7 +7341,7 @@
         <v>434</v>
       </c>
       <c r="B434" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.4">
@@ -7344,7 +7349,7 @@
         <v>435</v>
       </c>
       <c r="B435" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.4">
@@ -7352,7 +7357,7 @@
         <v>436</v>
       </c>
       <c r="B436" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.4">
@@ -7360,7 +7365,7 @@
         <v>437</v>
       </c>
       <c r="B437" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.4">
@@ -7368,7 +7373,7 @@
         <v>438</v>
       </c>
       <c r="B438" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.4">
@@ -7376,7 +7381,7 @@
         <v>439</v>
       </c>
       <c r="B439" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.4">
@@ -7384,7 +7389,7 @@
         <v>440</v>
       </c>
       <c r="B440" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.4">
@@ -7392,7 +7397,7 @@
         <v>441</v>
       </c>
       <c r="B441" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.4">
@@ -7400,7 +7405,7 @@
         <v>442</v>
       </c>
       <c r="B442" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.4">
@@ -7408,7 +7413,7 @@
         <v>443</v>
       </c>
       <c r="B443" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.4">
@@ -7416,7 +7421,7 @@
         <v>444</v>
       </c>
       <c r="B444" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.4">
@@ -7424,7 +7429,7 @@
         <v>445</v>
       </c>
       <c r="B445" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.4">
@@ -7432,7 +7437,7 @@
         <v>446</v>
       </c>
       <c r="B446" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.4">
@@ -7440,7 +7445,7 @@
         <v>447</v>
       </c>
       <c r="B447" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.4">
@@ -7448,7 +7453,7 @@
         <v>448</v>
       </c>
       <c r="B448" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.4">
@@ -7456,7 +7461,7 @@
         <v>449</v>
       </c>
       <c r="B449" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.4">
@@ -7464,7 +7469,7 @@
         <v>450</v>
       </c>
       <c r="B450" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.4">
@@ -7472,7 +7477,7 @@
         <v>451</v>
       </c>
       <c r="B451" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.4">
@@ -7480,7 +7485,7 @@
         <v>452</v>
       </c>
       <c r="B452" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.4">
@@ -7488,7 +7493,7 @@
         <v>453</v>
       </c>
       <c r="B453" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.4">
@@ -7496,7 +7501,7 @@
         <v>454</v>
       </c>
       <c r="B454" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.4">
@@ -7504,7 +7509,7 @@
         <v>455</v>
       </c>
       <c r="B455" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.4">
@@ -7512,7 +7517,7 @@
         <v>456</v>
       </c>
       <c r="B456" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.4">
@@ -7520,7 +7525,7 @@
         <v>457</v>
       </c>
       <c r="B457" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.4">
@@ -7528,7 +7533,7 @@
         <v>458</v>
       </c>
       <c r="B458" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.4">
@@ -7536,7 +7541,7 @@
         <v>459</v>
       </c>
       <c r="B459" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.4">
@@ -7544,7 +7549,7 @@
         <v>460</v>
       </c>
       <c r="B460" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.4">
@@ -7552,7 +7557,7 @@
         <v>461</v>
       </c>
       <c r="B461" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.4">
@@ -7560,7 +7565,7 @@
         <v>462</v>
       </c>
       <c r="B462" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.4">
@@ -7568,7 +7573,7 @@
         <v>463</v>
       </c>
       <c r="B463" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.4">
@@ -7576,7 +7581,7 @@
         <v>464</v>
       </c>
       <c r="B464" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.4">
@@ -7584,7 +7589,7 @@
         <v>465</v>
       </c>
       <c r="B465" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.4">
@@ -7592,7 +7597,7 @@
         <v>466</v>
       </c>
       <c r="B466" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.4">
@@ -7600,7 +7605,7 @@
         <v>467</v>
       </c>
       <c r="B467" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.4">
@@ -7608,7 +7613,7 @@
         <v>468</v>
       </c>
       <c r="B468" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.4">
@@ -7616,7 +7621,7 @@
         <v>469</v>
       </c>
       <c r="B469" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.4">
@@ -7624,7 +7629,7 @@
         <v>470</v>
       </c>
       <c r="B470" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.4">
@@ -7632,7 +7637,7 @@
         <v>471</v>
       </c>
       <c r="B471" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.4">
@@ -7640,7 +7645,7 @@
         <v>472</v>
       </c>
       <c r="B472" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.4">
@@ -7648,7 +7653,7 @@
         <v>473</v>
       </c>
       <c r="B473" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.4">
@@ -7656,7 +7661,7 @@
         <v>474</v>
       </c>
       <c r="B474" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.4">
@@ -7664,7 +7669,7 @@
         <v>475</v>
       </c>
       <c r="B475" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.4">
@@ -7672,7 +7677,7 @@
         <v>476</v>
       </c>
       <c r="B476" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.4">
@@ -7688,7 +7693,7 @@
         <v>478</v>
       </c>
       <c r="B478" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.4">
@@ -7696,7 +7701,7 @@
         <v>479</v>
       </c>
       <c r="B479" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.4">
@@ -7704,7 +7709,7 @@
         <v>480</v>
       </c>
       <c r="B480" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.4">
@@ -7712,7 +7717,7 @@
         <v>481</v>
       </c>
       <c r="B481" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.4">
@@ -7720,7 +7725,7 @@
         <v>482</v>
       </c>
       <c r="B482" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.4">
@@ -7728,7 +7733,7 @@
         <v>483</v>
       </c>
       <c r="B483" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.4">
@@ -7736,7 +7741,7 @@
         <v>484</v>
       </c>
       <c r="B484" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.4">
@@ -7744,7 +7749,7 @@
         <v>485</v>
       </c>
       <c r="B485" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.4">
@@ -7752,7 +7757,7 @@
         <v>486</v>
       </c>
       <c r="B486" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.4">
@@ -7760,7 +7765,7 @@
         <v>487</v>
       </c>
       <c r="B487" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.4">
@@ -7768,7 +7773,7 @@
         <v>488</v>
       </c>
       <c r="B488" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.4">
@@ -7776,7 +7781,7 @@
         <v>489</v>
       </c>
       <c r="B489" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.4">
@@ -7784,7 +7789,7 @@
         <v>490</v>
       </c>
       <c r="B490" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.4">
@@ -7792,7 +7797,7 @@
         <v>491</v>
       </c>
       <c r="B491" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.4">
@@ -7800,7 +7805,7 @@
         <v>492</v>
       </c>
       <c r="B492" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.4">
@@ -7808,7 +7813,7 @@
         <v>493</v>
       </c>
       <c r="B493" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.4">
@@ -7816,7 +7821,7 @@
         <v>494</v>
       </c>
       <c r="B494" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.4">
@@ -7824,7 +7829,7 @@
         <v>495</v>
       </c>
       <c r="B495" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.4">
@@ -7832,7 +7837,7 @@
         <v>496</v>
       </c>
       <c r="B496" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.4">
@@ -7840,7 +7845,7 @@
         <v>497</v>
       </c>
       <c r="B497" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.4">
@@ -7848,7 +7853,7 @@
         <v>498</v>
       </c>
       <c r="B498" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.4">
@@ -7856,7 +7861,7 @@
         <v>499</v>
       </c>
       <c r="B499" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.4">
@@ -7864,7 +7869,7 @@
         <v>500</v>
       </c>
       <c r="B500" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.4">
@@ -7872,7 +7877,7 @@
         <v>501</v>
       </c>
       <c r="B501" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.4">
@@ -7880,7 +7885,7 @@
         <v>502</v>
       </c>
       <c r="B502" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.4">
@@ -7888,7 +7893,7 @@
         <v>503</v>
       </c>
       <c r="B503" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.4">
@@ -7896,7 +7901,7 @@
         <v>504</v>
       </c>
       <c r="B504" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.4">
@@ -7904,7 +7909,7 @@
         <v>505</v>
       </c>
       <c r="B505" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.4">
@@ -7912,7 +7917,7 @@
         <v>506</v>
       </c>
       <c r="B506" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.4">
@@ -7920,7 +7925,7 @@
         <v>507</v>
       </c>
       <c r="B507" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.4">
@@ -7928,7 +7933,7 @@
         <v>508</v>
       </c>
       <c r="B508" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.4">
@@ -7936,7 +7941,7 @@
         <v>509</v>
       </c>
       <c r="B509" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.4">
@@ -7944,7 +7949,7 @@
         <v>510</v>
       </c>
       <c r="B510" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.4">
@@ -7952,7 +7957,7 @@
         <v>511</v>
       </c>
       <c r="B511" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.4">
@@ -7960,7 +7965,7 @@
         <v>512</v>
       </c>
       <c r="B512" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.4">
@@ -7968,7 +7973,7 @@
         <v>513</v>
       </c>
       <c r="B513" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.4">
@@ -7976,7 +7981,7 @@
         <v>514</v>
       </c>
       <c r="B514" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.4">
@@ -7984,7 +7989,7 @@
         <v>515</v>
       </c>
       <c r="B515" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.4">
@@ -7992,7 +7997,7 @@
         <v>516</v>
       </c>
       <c r="B516" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.4">
@@ -8000,7 +8005,7 @@
         <v>517</v>
       </c>
       <c r="B517" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.4">
@@ -8008,7 +8013,7 @@
         <v>518</v>
       </c>
       <c r="B518" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.4">
@@ -8016,7 +8021,7 @@
         <v>519</v>
       </c>
       <c r="B519" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.4">
@@ -8024,7 +8029,7 @@
         <v>520</v>
       </c>
       <c r="B520" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.4">
@@ -8032,7 +8037,7 @@
         <v>521</v>
       </c>
       <c r="B521" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.4">
@@ -8040,7 +8045,7 @@
         <v>522</v>
       </c>
       <c r="B522" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.4">
@@ -8048,7 +8053,7 @@
         <v>523</v>
       </c>
       <c r="B523" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.4">
@@ -8056,7 +8061,7 @@
         <v>524</v>
       </c>
       <c r="B524" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.4">
@@ -8064,7 +8069,7 @@
         <v>525</v>
       </c>
       <c r="B525" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.4">
@@ -8072,7 +8077,7 @@
         <v>526</v>
       </c>
       <c r="B526" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.4">
@@ -8080,7 +8085,7 @@
         <v>527</v>
       </c>
       <c r="B527" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.4">
@@ -8088,7 +8093,7 @@
         <v>528</v>
       </c>
       <c r="B528" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.4">
@@ -8096,7 +8101,7 @@
         <v>529</v>
       </c>
       <c r="B529" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.4">
@@ -8104,7 +8109,7 @@
         <v>530</v>
       </c>
       <c r="B530" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.4">
@@ -8112,7 +8117,7 @@
         <v>531</v>
       </c>
       <c r="B531" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.4">
@@ -8120,7 +8125,7 @@
         <v>532</v>
       </c>
       <c r="B532" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.4">
@@ -8128,7 +8133,7 @@
         <v>533</v>
       </c>
       <c r="B533" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.4">
@@ -8136,7 +8141,7 @@
         <v>534</v>
       </c>
       <c r="B534" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.4">
@@ -8144,7 +8149,7 @@
         <v>535</v>
       </c>
       <c r="B535" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.4">
@@ -8152,7 +8157,7 @@
         <v>536</v>
       </c>
       <c r="B536" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.4">
@@ -8160,7 +8165,7 @@
         <v>537</v>
       </c>
       <c r="B537" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.4">
@@ -8168,7 +8173,7 @@
         <v>538</v>
       </c>
       <c r="B538" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.4">
@@ -8176,7 +8181,7 @@
         <v>539</v>
       </c>
       <c r="B539" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.4">
@@ -8184,7 +8189,7 @@
         <v>540</v>
       </c>
       <c r="B540" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.4">
@@ -8192,7 +8197,7 @@
         <v>541</v>
       </c>
       <c r="B541" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.4">
@@ -8200,7 +8205,7 @@
         <v>542</v>
       </c>
       <c r="B542" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.4">
@@ -8208,7 +8213,7 @@
         <v>543</v>
       </c>
       <c r="B543" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.4">
@@ -8216,7 +8221,7 @@
         <v>544</v>
       </c>
       <c r="B544" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.4">
@@ -8224,7 +8229,7 @@
         <v>545</v>
       </c>
       <c r="B545" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.4">
@@ -8232,7 +8237,7 @@
         <v>546</v>
       </c>
       <c r="B546" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.4">
@@ -8240,7 +8245,7 @@
         <v>547</v>
       </c>
       <c r="B547" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.4">
@@ -8248,7 +8253,7 @@
         <v>548</v>
       </c>
       <c r="B548" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.4">
@@ -8256,7 +8261,7 @@
         <v>549</v>
       </c>
       <c r="B549" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.4">
@@ -8264,7 +8269,7 @@
         <v>550</v>
       </c>
       <c r="B550" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.4">
@@ -8272,7 +8277,7 @@
         <v>551</v>
       </c>
       <c r="B551" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.4">
@@ -8280,7 +8285,7 @@
         <v>552</v>
       </c>
       <c r="B552" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.4">
@@ -8288,7 +8293,7 @@
         <v>553</v>
       </c>
       <c r="B553" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.4">
@@ -8296,7 +8301,7 @@
         <v>554</v>
       </c>
       <c r="B554" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.4">
@@ -8304,7 +8309,7 @@
         <v>555</v>
       </c>
       <c r="B555" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.4">
@@ -8312,7 +8317,7 @@
         <v>556</v>
       </c>
       <c r="B556" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.4">
@@ -8320,7 +8325,7 @@
         <v>557</v>
       </c>
       <c r="B557" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.4">
@@ -8328,7 +8333,7 @@
         <v>558</v>
       </c>
       <c r="B558" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.4">
@@ -8336,7 +8341,7 @@
         <v>559</v>
       </c>
       <c r="B559" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.4">
@@ -8344,7 +8349,7 @@
         <v>560</v>
       </c>
       <c r="B560" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.4">
@@ -8352,7 +8357,7 @@
         <v>561</v>
       </c>
       <c r="B561" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.4">
@@ -8360,7 +8365,7 @@
         <v>562</v>
       </c>
       <c r="B562" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.4">
@@ -8368,7 +8373,7 @@
         <v>563</v>
       </c>
       <c r="B563" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.4">
@@ -8376,7 +8381,7 @@
         <v>564</v>
       </c>
       <c r="B564" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.4">
@@ -8384,7 +8389,7 @@
         <v>565</v>
       </c>
       <c r="B565" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.4">
@@ -8392,7 +8397,7 @@
         <v>566</v>
       </c>
       <c r="B566" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.4">
@@ -8400,7 +8405,7 @@
         <v>567</v>
       </c>
       <c r="B567" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.4">
@@ -8408,7 +8413,7 @@
         <v>568</v>
       </c>
       <c r="B568" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.4">
@@ -8416,7 +8421,7 @@
         <v>569</v>
       </c>
       <c r="B569" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.4">
@@ -8424,7 +8429,7 @@
         <v>570</v>
       </c>
       <c r="B570" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.4">
@@ -8432,7 +8437,7 @@
         <v>571</v>
       </c>
       <c r="B571" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.4">
@@ -8440,7 +8445,7 @@
         <v>572</v>
       </c>
       <c r="B572" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.4">
@@ -8448,7 +8453,7 @@
         <v>573</v>
       </c>
       <c r="B573" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.4">
@@ -8456,7 +8461,7 @@
         <v>574</v>
       </c>
       <c r="B574" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.4">
@@ -8464,7 +8469,7 @@
         <v>575</v>
       </c>
       <c r="B575" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.4">
@@ -8472,7 +8477,7 @@
         <v>576</v>
       </c>
       <c r="B576" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.4">
@@ -8480,7 +8485,7 @@
         <v>577</v>
       </c>
       <c r="B577" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.4">
@@ -8488,7 +8493,7 @@
         <v>578</v>
       </c>
       <c r="B578" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.4">
@@ -8496,7 +8501,7 @@
         <v>579</v>
       </c>
       <c r="B579" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.4">
@@ -8504,7 +8509,7 @@
         <v>580</v>
       </c>
       <c r="B580" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.4">
@@ -8512,7 +8517,7 @@
         <v>581</v>
       </c>
       <c r="B581" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.4">
@@ -8520,7 +8525,7 @@
         <v>582</v>
       </c>
       <c r="B582" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.4">
@@ -8528,7 +8533,7 @@
         <v>583</v>
       </c>
       <c r="B583" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.4">
@@ -8536,7 +8541,7 @@
         <v>584</v>
       </c>
       <c r="B584" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.4">
@@ -8544,7 +8549,7 @@
         <v>585</v>
       </c>
       <c r="B585" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.4">
@@ -8552,7 +8557,7 @@
         <v>586</v>
       </c>
       <c r="B586" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.4">
@@ -8560,7 +8565,7 @@
         <v>587</v>
       </c>
       <c r="B587" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.4">
@@ -8568,7 +8573,7 @@
         <v>588</v>
       </c>
       <c r="B588" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.4">
@@ -8576,7 +8581,7 @@
         <v>589</v>
       </c>
       <c r="B589" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.4">
@@ -8584,7 +8589,7 @@
         <v>590</v>
       </c>
       <c r="B590" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.4">
@@ -8592,7 +8597,7 @@
         <v>591</v>
       </c>
       <c r="B591" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.4">
@@ -8600,7 +8605,7 @@
         <v>592</v>
       </c>
       <c r="B592" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.4">
@@ -8608,7 +8613,7 @@
         <v>593</v>
       </c>
       <c r="B593" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.4">
@@ -8616,7 +8621,7 @@
         <v>594</v>
       </c>
       <c r="B594" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.4">
@@ -8624,7 +8629,7 @@
         <v>595</v>
       </c>
       <c r="B595" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.4">
@@ -8632,7 +8637,7 @@
         <v>596</v>
       </c>
       <c r="B596" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.4">
@@ -8640,7 +8645,7 @@
         <v>597</v>
       </c>
       <c r="B597" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.4">
@@ -8648,7 +8653,7 @@
         <v>598</v>
       </c>
       <c r="B598" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.4">
@@ -8656,7 +8661,7 @@
         <v>599</v>
       </c>
       <c r="B599" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.4">
@@ -8664,7 +8669,7 @@
         <v>600</v>
       </c>
       <c r="B600" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.4">
@@ -8672,7 +8677,7 @@
         <v>601</v>
       </c>
       <c r="B601" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.4">
@@ -8680,7 +8685,7 @@
         <v>602</v>
       </c>
       <c r="B602" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.4">
@@ -8688,7 +8693,7 @@
         <v>603</v>
       </c>
       <c r="B603" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.4">
@@ -8696,7 +8701,7 @@
         <v>604</v>
       </c>
       <c r="B604" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.4">
@@ -8704,7 +8709,7 @@
         <v>605</v>
       </c>
       <c r="B605" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.4">
@@ -8712,7 +8717,7 @@
         <v>606</v>
       </c>
       <c r="B606" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.4">
@@ -8720,7 +8725,7 @@
         <v>607</v>
       </c>
       <c r="B607" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.4">
@@ -8728,7 +8733,7 @@
         <v>608</v>
       </c>
       <c r="B608" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.4">
@@ -8736,7 +8741,7 @@
         <v>609</v>
       </c>
       <c r="B609" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.4">
@@ -8744,7 +8749,7 @@
         <v>610</v>
       </c>
       <c r="B610" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.4">
@@ -8752,7 +8757,7 @@
         <v>611</v>
       </c>
       <c r="B611" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.4">
@@ -8760,7 +8765,7 @@
         <v>612</v>
       </c>
       <c r="B612" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.4">
@@ -8768,7 +8773,7 @@
         <v>613</v>
       </c>
       <c r="B613" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.4">
@@ -8776,7 +8781,7 @@
         <v>614</v>
       </c>
       <c r="B614" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.4">
@@ -8784,7 +8789,7 @@
         <v>615</v>
       </c>
       <c r="B615" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.4">
@@ -8792,7 +8797,7 @@
         <v>616</v>
       </c>
       <c r="B616" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.4">
@@ -8800,7 +8805,7 @@
         <v>617</v>
       </c>
       <c r="B617" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.4">
@@ -8808,7 +8813,7 @@
         <v>618</v>
       </c>
       <c r="B618" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.4">
@@ -8816,7 +8821,7 @@
         <v>619</v>
       </c>
       <c r="B619" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.4">
@@ -8824,7 +8829,7 @@
         <v>620</v>
       </c>
       <c r="B620" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.4">
@@ -8832,7 +8837,7 @@
         <v>621</v>
       </c>
       <c r="B621" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.4">
@@ -8840,7 +8845,7 @@
         <v>622</v>
       </c>
       <c r="B622" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.4">
@@ -8848,7 +8853,7 @@
         <v>623</v>
       </c>
       <c r="B623" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.4">
@@ -8856,7 +8861,7 @@
         <v>624</v>
       </c>
       <c r="B624" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.4">
@@ -8864,7 +8869,7 @@
         <v>625</v>
       </c>
       <c r="B625" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.4">
@@ -8872,7 +8877,7 @@
         <v>626</v>
       </c>
       <c r="B626" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.4">
@@ -8880,7 +8885,7 @@
         <v>627</v>
       </c>
       <c r="B627" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.4">
@@ -8888,7 +8893,7 @@
         <v>628</v>
       </c>
       <c r="B628" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.4">
@@ -8896,7 +8901,7 @@
         <v>629</v>
       </c>
       <c r="B629" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.4">
@@ -8904,7 +8909,7 @@
         <v>630</v>
       </c>
       <c r="B630" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.4">
@@ -8912,7 +8917,7 @@
         <v>631</v>
       </c>
       <c r="B631" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.4">
@@ -8920,7 +8925,7 @@
         <v>632</v>
       </c>
       <c r="B632" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.4">
@@ -8928,7 +8933,7 @@
         <v>633</v>
       </c>
       <c r="B633" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.4">
@@ -8936,7 +8941,7 @@
         <v>634</v>
       </c>
       <c r="B634" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.4">
@@ -8944,7 +8949,7 @@
         <v>635</v>
       </c>
       <c r="B635" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.4">
@@ -8952,7 +8957,7 @@
         <v>636</v>
       </c>
       <c r="B636" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.4">
@@ -8960,7 +8965,7 @@
         <v>637</v>
       </c>
       <c r="B637" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.4">
@@ -8968,7 +8973,7 @@
         <v>638</v>
       </c>
       <c r="B638" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.4">
@@ -8976,7 +8981,7 @@
         <v>639</v>
       </c>
       <c r="B639" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.4">
@@ -8984,7 +8989,7 @@
         <v>640</v>
       </c>
       <c r="B640" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.4">
@@ -8992,7 +8997,7 @@
         <v>641</v>
       </c>
       <c r="B641" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.4">
@@ -9000,7 +9005,7 @@
         <v>642</v>
       </c>
       <c r="B642" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.4">
@@ -9008,7 +9013,7 @@
         <v>643</v>
       </c>
       <c r="B643" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.4">
@@ -9016,7 +9021,7 @@
         <v>644</v>
       </c>
       <c r="B644" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.4">
@@ -9024,7 +9029,7 @@
         <v>645</v>
       </c>
       <c r="B645" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.4">
@@ -9032,7 +9037,7 @@
         <v>646</v>
       </c>
       <c r="B646" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.4">
@@ -9040,7 +9045,7 @@
         <v>647</v>
       </c>
       <c r="B647" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.4">
@@ -9048,7 +9053,7 @@
         <v>648</v>
       </c>
       <c r="B648" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.4">
@@ -9056,7 +9061,7 @@
         <v>649</v>
       </c>
       <c r="B649" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.4">
@@ -9064,7 +9069,7 @@
         <v>650</v>
       </c>
       <c r="B650" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.4">
@@ -9072,7 +9077,7 @@
         <v>651</v>
       </c>
       <c r="B651" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.4">
@@ -9080,7 +9085,7 @@
         <v>652</v>
       </c>
       <c r="B652" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.4">
@@ -9088,7 +9093,7 @@
         <v>653</v>
       </c>
       <c r="B653" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.4">
@@ -9096,7 +9101,7 @@
         <v>654</v>
       </c>
       <c r="B654" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.4">
@@ -9104,7 +9109,7 @@
         <v>655</v>
       </c>
       <c r="B655" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.4">
@@ -9112,7 +9117,7 @@
         <v>656</v>
       </c>
       <c r="B656" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.4">
@@ -9120,7 +9125,7 @@
         <v>657</v>
       </c>
       <c r="B657" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.4">
@@ -9128,7 +9133,7 @@
         <v>658</v>
       </c>
       <c r="B658" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.4">
@@ -9136,7 +9141,7 @@
         <v>659</v>
       </c>
       <c r="B659" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.4">
@@ -9144,7 +9149,7 @@
         <v>660</v>
       </c>
       <c r="B660" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.4">
@@ -9152,7 +9157,7 @@
         <v>661</v>
       </c>
       <c r="B661" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.4">
@@ -9160,7 +9165,7 @@
         <v>662</v>
       </c>
       <c r="B662" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.4">
@@ -9168,7 +9173,7 @@
         <v>663</v>
       </c>
       <c r="B663" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.4">
@@ -9176,7 +9181,7 @@
         <v>664</v>
       </c>
       <c r="B664" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.4">
@@ -9184,7 +9189,7 @@
         <v>665</v>
       </c>
       <c r="B665" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.4">
@@ -9192,7 +9197,7 @@
         <v>666</v>
       </c>
       <c r="B666" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.4">
@@ -9200,7 +9205,7 @@
         <v>667</v>
       </c>
       <c r="B667" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.4">
@@ -9208,7 +9213,7 @@
         <v>668</v>
       </c>
       <c r="B668" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.4">
@@ -9216,7 +9221,7 @@
         <v>669</v>
       </c>
       <c r="B669" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.4">
@@ -9224,7 +9229,7 @@
         <v>670</v>
       </c>
       <c r="B670" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.4">
@@ -9232,7 +9237,7 @@
         <v>671</v>
       </c>
       <c r="B671" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.4">
@@ -9240,7 +9245,7 @@
         <v>672</v>
       </c>
       <c r="B672" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.4">
@@ -9248,7 +9253,7 @@
         <v>673</v>
       </c>
       <c r="B673" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.4">
@@ -9256,7 +9261,7 @@
         <v>674</v>
       </c>
       <c r="B674" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.4">
@@ -9264,7 +9269,7 @@
         <v>675</v>
       </c>
       <c r="B675" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.4">
@@ -9272,7 +9277,7 @@
         <v>676</v>
       </c>
       <c r="B676" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.4">
@@ -9280,7 +9285,7 @@
         <v>677</v>
       </c>
       <c r="B677" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.4">
@@ -9288,7 +9293,7 @@
         <v>678</v>
       </c>
       <c r="B678" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.4">
@@ -9296,7 +9301,7 @@
         <v>679</v>
       </c>
       <c r="B679" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.4">
@@ -9304,7 +9309,7 @@
         <v>680</v>
       </c>
       <c r="B680" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.4">
@@ -9312,7 +9317,7 @@
         <v>681</v>
       </c>
       <c r="B681" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.4">
@@ -9320,7 +9325,7 @@
         <v>682</v>
       </c>
       <c r="B682" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.4">
@@ -9328,7 +9333,7 @@
         <v>683</v>
       </c>
       <c r="B683" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.4">
@@ -9336,7 +9341,7 @@
         <v>684</v>
       </c>
       <c r="B684" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.4">
@@ -9344,7 +9349,7 @@
         <v>685</v>
       </c>
       <c r="B685" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.4">
@@ -9352,7 +9357,7 @@
         <v>686</v>
       </c>
       <c r="B686" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.4">
@@ -9360,7 +9365,7 @@
         <v>687</v>
       </c>
       <c r="B687" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.4">
@@ -9368,7 +9373,7 @@
         <v>688</v>
       </c>
       <c r="B688" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.4">
@@ -9376,7 +9381,7 @@
         <v>689</v>
       </c>
       <c r="B689" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.4">
@@ -9384,7 +9389,7 @@
         <v>690</v>
       </c>
       <c r="B690" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.4">
@@ -9392,7 +9397,7 @@
         <v>691</v>
       </c>
       <c r="B691" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.4">
@@ -9400,7 +9405,7 @@
         <v>692</v>
       </c>
       <c r="B692" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.4">
@@ -9408,7 +9413,7 @@
         <v>693</v>
       </c>
       <c r="B693" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.4">
@@ -9416,7 +9421,7 @@
         <v>694</v>
       </c>
       <c r="B694" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.4">
@@ -9424,7 +9429,7 @@
         <v>695</v>
       </c>
       <c r="B695" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.4">
@@ -9432,7 +9437,7 @@
         <v>696</v>
       </c>
       <c r="B696" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.4">
@@ -9440,7 +9445,7 @@
         <v>697</v>
       </c>
       <c r="B697" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.4">
@@ -9448,7 +9453,7 @@
         <v>698</v>
       </c>
       <c r="B698" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.4">
@@ -9456,7 +9461,7 @@
         <v>699</v>
       </c>
       <c r="B699" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.4">
@@ -9464,7 +9469,7 @@
         <v>700</v>
       </c>
       <c r="B700" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.4">
@@ -9472,7 +9477,7 @@
         <v>701</v>
       </c>
       <c r="B701" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.4">
@@ -9480,7 +9485,7 @@
         <v>702</v>
       </c>
       <c r="B702" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.4">
@@ -9488,7 +9493,7 @@
         <v>703</v>
       </c>
       <c r="B703" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.4">
@@ -9496,7 +9501,7 @@
         <v>704</v>
       </c>
       <c r="B704" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.4">
@@ -9504,7 +9509,7 @@
         <v>705</v>
       </c>
       <c r="B705" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.4">
@@ -9512,7 +9517,7 @@
         <v>706</v>
       </c>
       <c r="B706" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.4">
@@ -9520,7 +9525,7 @@
         <v>707</v>
       </c>
       <c r="B707" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.4">
@@ -9528,7 +9533,7 @@
         <v>708</v>
       </c>
       <c r="B708" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.4">
@@ -9536,7 +9541,7 @@
         <v>709</v>
       </c>
       <c r="B709" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.4">
@@ -9544,7 +9549,7 @@
         <v>710</v>
       </c>
       <c r="B710" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.4">
@@ -9552,7 +9557,7 @@
         <v>711</v>
       </c>
       <c r="B711" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.4">
@@ -9560,7 +9565,7 @@
         <v>712</v>
       </c>
       <c r="B712" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.4">
@@ -9568,7 +9573,7 @@
         <v>713</v>
       </c>
       <c r="B713" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.4">
@@ -9576,7 +9581,7 @@
         <v>714</v>
       </c>
       <c r="B714" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.4">
@@ -9584,7 +9589,7 @@
         <v>715</v>
       </c>
       <c r="B715" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.4">
@@ -9592,7 +9597,7 @@
         <v>716</v>
       </c>
       <c r="B716" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.4">
@@ -9600,7 +9605,7 @@
         <v>717</v>
       </c>
       <c r="B717" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.4">
@@ -9608,7 +9613,7 @@
         <v>718</v>
       </c>
       <c r="B718" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.4">
@@ -9616,7 +9621,7 @@
         <v>719</v>
       </c>
       <c r="B719" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.4">
@@ -9624,7 +9629,7 @@
         <v>720</v>
       </c>
       <c r="B720" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.4">
@@ -9632,7 +9637,7 @@
         <v>721</v>
       </c>
       <c r="B721" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.4">
@@ -9640,7 +9645,7 @@
         <v>722</v>
       </c>
       <c r="B722" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.4">
@@ -9648,7 +9653,7 @@
         <v>723</v>
       </c>
       <c r="B723" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.4">
@@ -9656,7 +9661,7 @@
         <v>724</v>
       </c>
       <c r="B724" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.4">
@@ -9664,7 +9669,7 @@
         <v>725</v>
       </c>
       <c r="B725" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.4">
@@ -9672,7 +9677,7 @@
         <v>726</v>
       </c>
       <c r="B726" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.4">
@@ -9680,7 +9685,7 @@
         <v>727</v>
       </c>
       <c r="B727" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.4">
@@ -9688,7 +9693,7 @@
         <v>728</v>
       </c>
       <c r="B728" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.4">
@@ -9696,7 +9701,7 @@
         <v>729</v>
       </c>
       <c r="B729" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.4">
@@ -9704,7 +9709,7 @@
         <v>730</v>
       </c>
       <c r="B730" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.4">
@@ -9712,7 +9717,7 @@
         <v>731</v>
       </c>
       <c r="B731" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.4">
@@ -9720,7 +9725,7 @@
         <v>732</v>
       </c>
       <c r="B732" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.4">
@@ -9728,7 +9733,7 @@
         <v>733</v>
       </c>
       <c r="B733" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.4">
@@ -9736,7 +9741,7 @@
         <v>734</v>
       </c>
       <c r="B734" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.4">
@@ -9744,7 +9749,7 @@
         <v>735</v>
       </c>
       <c r="B735" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.4">
@@ -9752,7 +9757,7 @@
         <v>736</v>
       </c>
       <c r="B736" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.4">
@@ -9760,7 +9765,7 @@
         <v>737</v>
       </c>
       <c r="B737" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.4">
@@ -9768,7 +9773,7 @@
         <v>738</v>
       </c>
       <c r="B738" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.4">
@@ -9776,7 +9781,7 @@
         <v>739</v>
       </c>
       <c r="B739" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.4">
@@ -9784,7 +9789,7 @@
         <v>740</v>
       </c>
       <c r="B740" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.4">
@@ -9792,7 +9797,7 @@
         <v>741</v>
       </c>
       <c r="B741" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.4">
@@ -9800,7 +9805,7 @@
         <v>742</v>
       </c>
       <c r="B742" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.4">
@@ -9808,7 +9813,7 @@
         <v>743</v>
       </c>
       <c r="B743" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.4">
@@ -9816,7 +9821,7 @@
         <v>744</v>
       </c>
       <c r="B744" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.4">
@@ -9824,7 +9829,7 @@
         <v>745</v>
       </c>
       <c r="B745" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.4">
@@ -9832,7 +9837,7 @@
         <v>746</v>
       </c>
       <c r="B746" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.4">
@@ -9840,7 +9845,7 @@
         <v>747</v>
       </c>
       <c r="B747" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.4">
@@ -9848,7 +9853,7 @@
         <v>748</v>
       </c>
       <c r="B748" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.4">
@@ -9856,7 +9861,7 @@
         <v>749</v>
       </c>
       <c r="B749" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.4">
@@ -9864,7 +9869,7 @@
         <v>750</v>
       </c>
       <c r="B750" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.4">
@@ -9872,7 +9877,7 @@
         <v>751</v>
       </c>
       <c r="B751" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.4">
@@ -9880,7 +9885,7 @@
         <v>752</v>
       </c>
       <c r="B752" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.4">
@@ -9888,7 +9893,7 @@
         <v>753</v>
       </c>
       <c r="B753" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.4">
@@ -9896,7 +9901,7 @@
         <v>754</v>
       </c>
       <c r="B754" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.4">
@@ -9904,7 +9909,7 @@
         <v>755</v>
       </c>
       <c r="B755" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.4">
@@ -9912,7 +9917,7 @@
         <v>756</v>
       </c>
       <c r="B756" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.4">
@@ -9920,7 +9925,7 @@
         <v>757</v>
       </c>
       <c r="B757" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.4">
@@ -9928,7 +9933,7 @@
         <v>758</v>
       </c>
       <c r="B758" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.4">
@@ -9936,7 +9941,7 @@
         <v>759</v>
       </c>
       <c r="B759" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.4">
@@ -9944,7 +9949,7 @@
         <v>760</v>
       </c>
       <c r="B760" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.4">
@@ -9952,7 +9957,7 @@
         <v>761</v>
       </c>
       <c r="B761" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.4">
@@ -9960,7 +9965,7 @@
         <v>762</v>
       </c>
       <c r="B762" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.4">
@@ -9968,7 +9973,7 @@
         <v>763</v>
       </c>
       <c r="B763" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.4">
@@ -9976,7 +9981,7 @@
         <v>764</v>
       </c>
       <c r="B764" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.4">
@@ -9984,7 +9989,7 @@
         <v>765</v>
       </c>
       <c r="B765" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.4">
@@ -9992,7 +9997,7 @@
         <v>766</v>
       </c>
       <c r="B766" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.4">
@@ -10000,7 +10005,7 @@
         <v>767</v>
       </c>
       <c r="B767" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.4">
@@ -10008,7 +10013,7 @@
         <v>768</v>
       </c>
       <c r="B768" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.4">
@@ -10016,7 +10021,7 @@
         <v>769</v>
       </c>
       <c r="B769" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.4">
@@ -10024,7 +10029,7 @@
         <v>770</v>
       </c>
       <c r="B770" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.4">
@@ -10032,7 +10037,7 @@
         <v>771</v>
       </c>
       <c r="B771" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.4">
@@ -10040,7 +10045,7 @@
         <v>772</v>
       </c>
       <c r="B772" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.4">
@@ -10048,7 +10053,7 @@
         <v>773</v>
       </c>
       <c r="B773" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.4">
@@ -10056,7 +10061,7 @@
         <v>774</v>
       </c>
       <c r="B774" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.4">
@@ -10064,7 +10069,7 @@
         <v>775</v>
       </c>
       <c r="B775" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.4">
@@ -10072,7 +10077,7 @@
         <v>776</v>
       </c>
       <c r="B776" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.4">
@@ -10080,7 +10085,7 @@
         <v>777</v>
       </c>
       <c r="B777" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.4">
@@ -10088,7 +10093,7 @@
         <v>778</v>
       </c>
       <c r="B778" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.4">
@@ -10096,7 +10101,7 @@
         <v>779</v>
       </c>
       <c r="B779" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.4">
@@ -10104,7 +10109,7 @@
         <v>780</v>
       </c>
       <c r="B780" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.4">
@@ -10112,7 +10117,7 @@
         <v>781</v>
       </c>
       <c r="B781" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.4">
@@ -10120,7 +10125,7 @@
         <v>782</v>
       </c>
       <c r="B782" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.4">
@@ -10128,7 +10133,7 @@
         <v>783</v>
       </c>
       <c r="B783" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.4">
@@ -10136,7 +10141,7 @@
         <v>784</v>
       </c>
       <c r="B784" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.4">
@@ -10144,7 +10149,7 @@
         <v>785</v>
       </c>
       <c r="B785" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.4">
@@ -10152,7 +10157,7 @@
         <v>786</v>
       </c>
       <c r="B786" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.4">
@@ -10160,7 +10165,7 @@
         <v>787</v>
       </c>
       <c r="B787" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.4">
@@ -10168,7 +10173,7 @@
         <v>788</v>
       </c>
       <c r="B788" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.4">
@@ -10176,7 +10181,7 @@
         <v>789</v>
       </c>
       <c r="B789" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.4">
@@ -10184,7 +10189,7 @@
         <v>790</v>
       </c>
       <c r="B790" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.4">
@@ -10192,7 +10197,7 @@
         <v>791</v>
       </c>
       <c r="B791" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.4">
@@ -10200,7 +10205,7 @@
         <v>792</v>
       </c>
       <c r="B792" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.4">
@@ -10208,7 +10213,7 @@
         <v>793</v>
       </c>
       <c r="B793" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.4">
@@ -10216,7 +10221,7 @@
         <v>794</v>
       </c>
       <c r="B794" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.4">
@@ -10224,7 +10229,7 @@
         <v>795</v>
       </c>
       <c r="B795" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.4">
@@ -10232,7 +10237,7 @@
         <v>796</v>
       </c>
       <c r="B796" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.4">
@@ -10240,7 +10245,7 @@
         <v>797</v>
       </c>
       <c r="B797" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.4">
@@ -10248,7 +10253,7 @@
         <v>798</v>
       </c>
       <c r="B798" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.4">
@@ -10256,7 +10261,7 @@
         <v>799</v>
       </c>
       <c r="B799" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.4">
@@ -10264,7 +10269,7 @@
         <v>800</v>
       </c>
       <c r="B800" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.4">
@@ -10272,7 +10277,7 @@
         <v>801</v>
       </c>
       <c r="B801" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.4">
@@ -10280,7 +10285,7 @@
         <v>802</v>
       </c>
       <c r="B802" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.4">
@@ -10288,7 +10293,7 @@
         <v>803</v>
       </c>
       <c r="B803" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.4">
@@ -10296,7 +10301,7 @@
         <v>804</v>
       </c>
       <c r="B804" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.4">
@@ -10304,7 +10309,7 @@
         <v>805</v>
       </c>
       <c r="B805" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.4">
@@ -10312,7 +10317,7 @@
         <v>806</v>
       </c>
       <c r="B806" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.4">
@@ -10320,7 +10325,7 @@
         <v>807</v>
       </c>
       <c r="B807" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.4">
@@ -10328,7 +10333,7 @@
         <v>808</v>
       </c>
       <c r="B808" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.4">
@@ -10336,7 +10341,7 @@
         <v>809</v>
       </c>
       <c r="B809" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.4">
@@ -10344,7 +10349,7 @@
         <v>810</v>
       </c>
       <c r="B810" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.4">
@@ -10352,7 +10357,7 @@
         <v>811</v>
       </c>
       <c r="B811" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.4">
@@ -10360,7 +10365,7 @@
         <v>812</v>
       </c>
       <c r="B812" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.4">
@@ -10368,7 +10373,7 @@
         <v>813</v>
       </c>
       <c r="B813" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.4">
@@ -10376,7 +10381,7 @@
         <v>814</v>
       </c>
       <c r="B814" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.4">
@@ -10384,7 +10389,7 @@
         <v>815</v>
       </c>
       <c r="B815" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.4">
@@ -10392,7 +10397,7 @@
         <v>816</v>
       </c>
       <c r="B816" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.4">
@@ -10400,7 +10405,7 @@
         <v>817</v>
       </c>
       <c r="B817" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.4">
@@ -10408,7 +10413,7 @@
         <v>818</v>
       </c>
       <c r="B818" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.4">
@@ -10416,7 +10421,7 @@
         <v>819</v>
       </c>
       <c r="B819" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.4">
@@ -10424,7 +10429,7 @@
         <v>820</v>
       </c>
       <c r="B820" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="821" spans="1:2" x14ac:dyDescent="0.4">
@@ -10432,7 +10437,7 @@
         <v>821</v>
       </c>
       <c r="B821" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.4">
@@ -10440,7 +10445,7 @@
         <v>822</v>
       </c>
       <c r="B822" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.4">
@@ -10448,7 +10453,7 @@
         <v>823</v>
       </c>
       <c r="B823" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.4">
@@ -10456,7 +10461,7 @@
         <v>824</v>
       </c>
       <c r="B824" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.4">
@@ -10464,7 +10469,7 @@
         <v>825</v>
       </c>
       <c r="B825" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.4">
@@ -10472,7 +10477,7 @@
         <v>826</v>
       </c>
       <c r="B826" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="827" spans="1:2" x14ac:dyDescent="0.4">
@@ -10480,7 +10485,7 @@
         <v>827</v>
       </c>
       <c r="B827" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.4">
@@ -10488,7 +10493,7 @@
         <v>828</v>
       </c>
       <c r="B828" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.4">
@@ -10496,7 +10501,7 @@
         <v>829</v>
       </c>
       <c r="B829" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="830" spans="1:2" x14ac:dyDescent="0.4">
@@ -10504,7 +10509,7 @@
         <v>830</v>
       </c>
       <c r="B830" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="831" spans="1:2" x14ac:dyDescent="0.4">
@@ -10512,7 +10517,7 @@
         <v>831</v>
       </c>
       <c r="B831" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="832" spans="1:2" x14ac:dyDescent="0.4">
@@ -10520,7 +10525,7 @@
         <v>832</v>
       </c>
       <c r="B832" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="833" spans="1:2" x14ac:dyDescent="0.4">
@@ -10528,7 +10533,7 @@
         <v>833</v>
       </c>
       <c r="B833" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.4">
@@ -10536,7 +10541,7 @@
         <v>834</v>
       </c>
       <c r="B834" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="835" spans="1:2" x14ac:dyDescent="0.4">
@@ -10544,7 +10549,7 @@
         <v>835</v>
       </c>
       <c r="B835" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.4">
@@ -10552,7 +10557,7 @@
         <v>836</v>
       </c>
       <c r="B836" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.4">
@@ -10560,7 +10565,7 @@
         <v>837</v>
       </c>
       <c r="B837" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.4">
@@ -10568,7 +10573,7 @@
         <v>838</v>
       </c>
       <c r="B838" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.4">
@@ -10576,7 +10581,7 @@
         <v>839</v>
       </c>
       <c r="B839" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.4">
@@ -10584,7 +10589,7 @@
         <v>840</v>
       </c>
       <c r="B840" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.4">
@@ -10592,7 +10597,7 @@
         <v>841</v>
       </c>
       <c r="B841" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.4">
@@ -10600,7 +10605,7 @@
         <v>842</v>
       </c>
       <c r="B842" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.4">
@@ -10608,7 +10613,7 @@
         <v>843</v>
       </c>
       <c r="B843" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.4">
@@ -10616,7 +10621,7 @@
         <v>844</v>
       </c>
       <c r="B844" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.4">
@@ -10624,7 +10629,7 @@
         <v>845</v>
       </c>
       <c r="B845" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.4">
@@ -10632,7 +10637,7 @@
         <v>846</v>
       </c>
       <c r="B846" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.4">
@@ -10640,7 +10645,7 @@
         <v>847</v>
       </c>
       <c r="B847" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.4">
@@ -10648,7 +10653,7 @@
         <v>848</v>
       </c>
       <c r="B848" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.4">
@@ -10656,7 +10661,7 @@
         <v>849</v>
       </c>
       <c r="B849" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.4">
@@ -10664,7 +10669,7 @@
         <v>850</v>
       </c>
       <c r="B850" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.4">
@@ -10672,7 +10677,7 @@
         <v>851</v>
       </c>
       <c r="B851" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.4">
@@ -10680,7 +10685,7 @@
         <v>852</v>
       </c>
       <c r="B852" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.4">
@@ -10688,7 +10693,7 @@
         <v>853</v>
       </c>
       <c r="B853" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.4">
@@ -10696,7 +10701,7 @@
         <v>854</v>
       </c>
       <c r="B854" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.4">
@@ -10704,7 +10709,7 @@
         <v>855</v>
       </c>
       <c r="B855" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.4">
@@ -10712,7 +10717,7 @@
         <v>856</v>
       </c>
       <c r="B856" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.4">
@@ -10720,7 +10725,7 @@
         <v>857</v>
       </c>
       <c r="B857" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.4">
@@ -10728,7 +10733,7 @@
         <v>858</v>
       </c>
       <c r="B858" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.4">
@@ -10736,7 +10741,7 @@
         <v>859</v>
       </c>
       <c r="B859" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.4">
@@ -10744,7 +10749,7 @@
         <v>860</v>
       </c>
       <c r="B860" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.4">
@@ -10752,7 +10757,7 @@
         <v>861</v>
       </c>
       <c r="B861" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.4">
@@ -10760,7 +10765,7 @@
         <v>862</v>
       </c>
       <c r="B862" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="863" spans="1:2" x14ac:dyDescent="0.4">
@@ -10768,7 +10773,7 @@
         <v>863</v>
       </c>
       <c r="B863" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.4">
@@ -10776,7 +10781,7 @@
         <v>864</v>
       </c>
       <c r="B864" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.4">
@@ -10784,7 +10789,7 @@
         <v>865</v>
       </c>
       <c r="B865" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.4">
@@ -10792,7 +10797,7 @@
         <v>866</v>
       </c>
       <c r="B866" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.4">
@@ -10800,7 +10805,7 @@
         <v>867</v>
       </c>
       <c r="B867" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.4">
@@ -10808,7 +10813,7 @@
         <v>868</v>
       </c>
       <c r="B868" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.4">
@@ -10816,7 +10821,7 @@
         <v>869</v>
       </c>
       <c r="B869" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.4">
@@ -10824,7 +10829,7 @@
         <v>870</v>
       </c>
       <c r="B870" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="871" spans="1:2" x14ac:dyDescent="0.4">
@@ -10832,7 +10837,7 @@
         <v>871</v>
       </c>
       <c r="B871" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="872" spans="1:2" x14ac:dyDescent="0.4">
@@ -10840,7 +10845,7 @@
         <v>872</v>
       </c>
       <c r="B872" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="873" spans="1:2" x14ac:dyDescent="0.4">
@@ -10848,7 +10853,7 @@
         <v>873</v>
       </c>
       <c r="B873" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="874" spans="1:2" x14ac:dyDescent="0.4">
@@ -10856,7 +10861,7 @@
         <v>874</v>
       </c>
       <c r="B874" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="875" spans="1:2" x14ac:dyDescent="0.4">
@@ -10864,7 +10869,7 @@
         <v>875</v>
       </c>
       <c r="B875" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="876" spans="1:2" x14ac:dyDescent="0.4">
@@ -10872,7 +10877,7 @@
         <v>876</v>
       </c>
       <c r="B876" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="877" spans="1:2" x14ac:dyDescent="0.4">
@@ -10880,7 +10885,7 @@
         <v>877</v>
       </c>
       <c r="B877" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="878" spans="1:2" x14ac:dyDescent="0.4">
@@ -10888,7 +10893,7 @@
         <v>878</v>
       </c>
       <c r="B878" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="879" spans="1:2" x14ac:dyDescent="0.4">
@@ -10896,7 +10901,7 @@
         <v>879</v>
       </c>
       <c r="B879" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="880" spans="1:2" x14ac:dyDescent="0.4">
@@ -10904,7 +10909,7 @@
         <v>880</v>
       </c>
       <c r="B880" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="881" spans="1:2" x14ac:dyDescent="0.4">
@@ -10912,7 +10917,7 @@
         <v>881</v>
       </c>
       <c r="B881" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.4">
@@ -10920,7 +10925,7 @@
         <v>882</v>
       </c>
       <c r="B882" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="883" spans="1:2" x14ac:dyDescent="0.4">
@@ -10928,7 +10933,7 @@
         <v>883</v>
       </c>
       <c r="B883" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.4">
@@ -10936,7 +10941,7 @@
         <v>884</v>
       </c>
       <c r="B884" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="885" spans="1:2" x14ac:dyDescent="0.4">
@@ -10944,7 +10949,7 @@
         <v>885</v>
       </c>
       <c r="B885" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="886" spans="1:2" x14ac:dyDescent="0.4">
@@ -10952,7 +10957,7 @@
         <v>886</v>
       </c>
       <c r="B886" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="887" spans="1:2" x14ac:dyDescent="0.4">
@@ -10960,7 +10965,7 @@
         <v>887</v>
       </c>
       <c r="B887" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="888" spans="1:2" x14ac:dyDescent="0.4">
@@ -10968,7 +10973,7 @@
         <v>888</v>
       </c>
       <c r="B888" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="889" spans="1:2" x14ac:dyDescent="0.4">
@@ -10976,7 +10981,7 @@
         <v>889</v>
       </c>
       <c r="B889" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="890" spans="1:2" x14ac:dyDescent="0.4">
@@ -10984,7 +10989,7 @@
         <v>890</v>
       </c>
       <c r="B890" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="891" spans="1:2" x14ac:dyDescent="0.4">
@@ -10992,7 +10997,7 @@
         <v>891</v>
       </c>
       <c r="B891" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="892" spans="1:2" x14ac:dyDescent="0.4">
@@ -11000,7 +11005,7 @@
         <v>892</v>
       </c>
       <c r="B892" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="893" spans="1:2" x14ac:dyDescent="0.4">
@@ -11008,7 +11013,7 @@
         <v>893</v>
       </c>
       <c r="B893" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="894" spans="1:2" x14ac:dyDescent="0.4">
@@ -11024,7 +11029,7 @@
         <v>895</v>
       </c>
       <c r="B895" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="896" spans="1:2" x14ac:dyDescent="0.4">
@@ -11032,7 +11037,7 @@
         <v>896</v>
       </c>
       <c r="B896" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="897" spans="1:2" x14ac:dyDescent="0.4">
@@ -11040,7 +11045,7 @@
         <v>897</v>
       </c>
       <c r="B897" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="898" spans="1:2" x14ac:dyDescent="0.4">
@@ -11048,7 +11053,7 @@
         <v>898</v>
       </c>
       <c r="B898" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="899" spans="1:2" x14ac:dyDescent="0.4">
@@ -11056,7 +11061,7 @@
         <v>899</v>
       </c>
       <c r="B899" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.4">
@@ -11064,7 +11069,7 @@
         <v>900</v>
       </c>
       <c r="B900" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="901" spans="1:2" x14ac:dyDescent="0.4">
@@ -11072,7 +11077,7 @@
         <v>901</v>
       </c>
       <c r="B901" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.4">
@@ -11080,7 +11085,7 @@
         <v>902</v>
       </c>
       <c r="B902" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="903" spans="1:2" x14ac:dyDescent="0.4">
@@ -11088,7 +11093,7 @@
         <v>903</v>
       </c>
       <c r="B903" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="904" spans="1:2" x14ac:dyDescent="0.4">
@@ -11096,7 +11101,7 @@
         <v>904</v>
       </c>
       <c r="B904" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="905" spans="1:2" x14ac:dyDescent="0.4">
@@ -11104,7 +11109,7 @@
         <v>905</v>
       </c>
       <c r="B905" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="906" spans="1:2" x14ac:dyDescent="0.4">
@@ -11112,7 +11117,7 @@
         <v>906</v>
       </c>
       <c r="B906" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="907" spans="1:2" x14ac:dyDescent="0.4">
@@ -11120,7 +11125,7 @@
         <v>907</v>
       </c>
       <c r="B907" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="908" spans="1:2" x14ac:dyDescent="0.4">
@@ -11128,7 +11133,7 @@
         <v>908</v>
       </c>
       <c r="B908" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="909" spans="1:2" x14ac:dyDescent="0.4">
@@ -11136,7 +11141,7 @@
         <v>909</v>
       </c>
       <c r="B909" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="910" spans="1:2" x14ac:dyDescent="0.4">
@@ -11144,7 +11149,7 @@
         <v>910</v>
       </c>
       <c r="B910" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="911" spans="1:2" x14ac:dyDescent="0.4">
@@ -11152,7 +11157,7 @@
         <v>911</v>
       </c>
       <c r="B911" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="912" spans="1:2" x14ac:dyDescent="0.4">
@@ -11160,7 +11165,7 @@
         <v>912</v>
       </c>
       <c r="B912" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="913" spans="1:2" x14ac:dyDescent="0.4">
@@ -11168,7 +11173,7 @@
         <v>913</v>
       </c>
       <c r="B913" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="914" spans="1:2" x14ac:dyDescent="0.4">
@@ -11176,7 +11181,7 @@
         <v>914</v>
       </c>
       <c r="B914" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="915" spans="1:2" x14ac:dyDescent="0.4">
@@ -11184,7 +11189,7 @@
         <v>915</v>
       </c>
       <c r="B915" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="916" spans="1:2" x14ac:dyDescent="0.4">
@@ -11192,7 +11197,7 @@
         <v>916</v>
       </c>
       <c r="B916" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="917" spans="1:2" x14ac:dyDescent="0.4">
@@ -11200,7 +11205,7 @@
         <v>917</v>
       </c>
       <c r="B917" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="918" spans="1:2" x14ac:dyDescent="0.4">
@@ -11208,7 +11213,7 @@
         <v>918</v>
       </c>
       <c r="B918" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="919" spans="1:2" x14ac:dyDescent="0.4">
@@ -11216,7 +11221,7 @@
         <v>919</v>
       </c>
       <c r="B919" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="920" spans="1:2" x14ac:dyDescent="0.4">
@@ -11224,7 +11229,7 @@
         <v>920</v>
       </c>
       <c r="B920" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="921" spans="1:2" x14ac:dyDescent="0.4">
@@ -11232,7 +11237,7 @@
         <v>921</v>
       </c>
       <c r="B921" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="922" spans="1:2" x14ac:dyDescent="0.4">
@@ -11240,7 +11245,7 @@
         <v>922</v>
       </c>
       <c r="B922" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="923" spans="1:2" x14ac:dyDescent="0.4">
@@ -11248,7 +11253,7 @@
         <v>923</v>
       </c>
       <c r="B923" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="924" spans="1:2" x14ac:dyDescent="0.4">
@@ -11256,7 +11261,7 @@
         <v>924</v>
       </c>
       <c r="B924" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="925" spans="1:2" x14ac:dyDescent="0.4">
@@ -11264,7 +11269,7 @@
         <v>925</v>
       </c>
       <c r="B925" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="926" spans="1:2" x14ac:dyDescent="0.4">
@@ -11272,7 +11277,7 @@
         <v>926</v>
       </c>
       <c r="B926" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="927" spans="1:2" x14ac:dyDescent="0.4">
@@ -11280,7 +11285,7 @@
         <v>927</v>
       </c>
       <c r="B927" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="928" spans="1:2" x14ac:dyDescent="0.4">
@@ -11288,7 +11293,7 @@
         <v>928</v>
       </c>
       <c r="B928" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.4">
@@ -11296,7 +11301,7 @@
         <v>929</v>
       </c>
       <c r="B929" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.4">
@@ -11304,7 +11309,7 @@
         <v>930</v>
       </c>
       <c r="B930" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="931" spans="1:2" x14ac:dyDescent="0.4">
@@ -11312,7 +11317,7 @@
         <v>931</v>
       </c>
       <c r="B931" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="932" spans="1:2" x14ac:dyDescent="0.4">
@@ -11320,7 +11325,7 @@
         <v>932</v>
       </c>
       <c r="B932" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="933" spans="1:2" x14ac:dyDescent="0.4">
@@ -11328,7 +11333,7 @@
         <v>933</v>
       </c>
       <c r="B933" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="934" spans="1:2" x14ac:dyDescent="0.4">
@@ -11336,7 +11341,7 @@
         <v>934</v>
       </c>
       <c r="B934" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="935" spans="1:2" x14ac:dyDescent="0.4">
@@ -11344,7 +11349,7 @@
         <v>935</v>
       </c>
       <c r="B935" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="936" spans="1:2" x14ac:dyDescent="0.4">
@@ -11352,7 +11357,7 @@
         <v>936</v>
       </c>
       <c r="B936" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="937" spans="1:2" x14ac:dyDescent="0.4">
@@ -11360,7 +11365,7 @@
         <v>937</v>
       </c>
       <c r="B937" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="938" spans="1:2" x14ac:dyDescent="0.4">
@@ -11368,7 +11373,7 @@
         <v>938</v>
       </c>
       <c r="B938" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="939" spans="1:2" x14ac:dyDescent="0.4">
@@ -11376,7 +11381,7 @@
         <v>939</v>
       </c>
       <c r="B939" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="940" spans="1:2" x14ac:dyDescent="0.4">
@@ -11384,7 +11389,7 @@
         <v>940</v>
       </c>
       <c r="B940" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="941" spans="1:2" x14ac:dyDescent="0.4">
@@ -11392,7 +11397,7 @@
         <v>941</v>
       </c>
       <c r="B941" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="942" spans="1:2" x14ac:dyDescent="0.4">
@@ -11400,7 +11405,7 @@
         <v>942</v>
       </c>
       <c r="B942" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="943" spans="1:2" x14ac:dyDescent="0.4">
@@ -11408,7 +11413,7 @@
         <v>943</v>
       </c>
       <c r="B943" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="944" spans="1:2" x14ac:dyDescent="0.4">
@@ -11416,7 +11421,7 @@
         <v>944</v>
       </c>
       <c r="B944" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="945" spans="1:2" x14ac:dyDescent="0.4">
@@ -11424,7 +11429,7 @@
         <v>945</v>
       </c>
       <c r="B945" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="946" spans="1:2" x14ac:dyDescent="0.4">
@@ -11432,7 +11437,7 @@
         <v>946</v>
       </c>
       <c r="B946" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="947" spans="1:2" x14ac:dyDescent="0.4">
@@ -11440,7 +11445,7 @@
         <v>947</v>
       </c>
       <c r="B947" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="948" spans="1:2" x14ac:dyDescent="0.4">
@@ -11448,7 +11453,7 @@
         <v>948</v>
       </c>
       <c r="B948" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="949" spans="1:2" x14ac:dyDescent="0.4">
@@ -11456,7 +11461,7 @@
         <v>949</v>
       </c>
       <c r="B949" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="950" spans="1:2" x14ac:dyDescent="0.4">
@@ -11464,7 +11469,7 @@
         <v>950</v>
       </c>
       <c r="B950" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="951" spans="1:2" x14ac:dyDescent="0.4">
@@ -11472,7 +11477,7 @@
         <v>951</v>
       </c>
       <c r="B951" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="952" spans="1:2" x14ac:dyDescent="0.4">
@@ -11480,7 +11485,7 @@
         <v>952</v>
       </c>
       <c r="B952" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="953" spans="1:2" x14ac:dyDescent="0.4">
@@ -11488,7 +11493,7 @@
         <v>953</v>
       </c>
       <c r="B953" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="954" spans="1:2" x14ac:dyDescent="0.4">
@@ -11496,7 +11501,7 @@
         <v>954</v>
       </c>
       <c r="B954" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="955" spans="1:2" x14ac:dyDescent="0.4">
@@ -11504,7 +11509,7 @@
         <v>955</v>
       </c>
       <c r="B955" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="956" spans="1:2" x14ac:dyDescent="0.4">
@@ -11512,7 +11517,7 @@
         <v>956</v>
       </c>
       <c r="B956" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="957" spans="1:2" x14ac:dyDescent="0.4">
@@ -11520,7 +11525,7 @@
         <v>957</v>
       </c>
       <c r="B957" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="958" spans="1:2" x14ac:dyDescent="0.4">
@@ -11528,7 +11533,7 @@
         <v>958</v>
       </c>
       <c r="B958" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="959" spans="1:2" x14ac:dyDescent="0.4">
@@ -11536,7 +11541,7 @@
         <v>959</v>
       </c>
       <c r="B959" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="960" spans="1:2" x14ac:dyDescent="0.4">
@@ -11544,7 +11549,7 @@
         <v>960</v>
       </c>
       <c r="B960" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="961" spans="1:2" x14ac:dyDescent="0.4">
@@ -11552,7 +11557,7 @@
         <v>961</v>
       </c>
       <c r="B961" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="962" spans="1:2" x14ac:dyDescent="0.4">
@@ -11560,7 +11565,7 @@
         <v>962</v>
       </c>
       <c r="B962" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="963" spans="1:2" x14ac:dyDescent="0.4">
@@ -11568,7 +11573,7 @@
         <v>963</v>
       </c>
       <c r="B963" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="964" spans="1:2" x14ac:dyDescent="0.4">
@@ -11576,7 +11581,7 @@
         <v>964</v>
       </c>
       <c r="B964" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="965" spans="1:2" x14ac:dyDescent="0.4">
@@ -11584,7 +11589,7 @@
         <v>965</v>
       </c>
       <c r="B965" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="966" spans="1:2" x14ac:dyDescent="0.4">
@@ -11592,7 +11597,7 @@
         <v>966</v>
       </c>
       <c r="B966" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="967" spans="1:2" x14ac:dyDescent="0.4">
@@ -11600,7 +11605,7 @@
         <v>967</v>
       </c>
       <c r="B967" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="968" spans="1:2" x14ac:dyDescent="0.4">
@@ -11608,7 +11613,7 @@
         <v>968</v>
       </c>
       <c r="B968" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="969" spans="1:2" x14ac:dyDescent="0.4">
@@ -11616,7 +11621,7 @@
         <v>969</v>
       </c>
       <c r="B969" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="970" spans="1:2" x14ac:dyDescent="0.4">
@@ -11624,7 +11629,7 @@
         <v>970</v>
       </c>
       <c r="B970" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="971" spans="1:2" x14ac:dyDescent="0.4">
@@ -11632,7 +11637,7 @@
         <v>971</v>
       </c>
       <c r="B971" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="972" spans="1:2" x14ac:dyDescent="0.4">
@@ -11640,7 +11645,7 @@
         <v>972</v>
       </c>
       <c r="B972" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="973" spans="1:2" x14ac:dyDescent="0.4">
@@ -11648,7 +11653,7 @@
         <v>973</v>
       </c>
       <c r="B973" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="974" spans="1:2" x14ac:dyDescent="0.4">
@@ -11656,7 +11661,7 @@
         <v>974</v>
       </c>
       <c r="B974" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="975" spans="1:2" x14ac:dyDescent="0.4">
@@ -11664,7 +11669,7 @@
         <v>975</v>
       </c>
       <c r="B975" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="976" spans="1:2" x14ac:dyDescent="0.4">
@@ -11672,7 +11677,7 @@
         <v>976</v>
       </c>
       <c r="B976" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="977" spans="1:2" x14ac:dyDescent="0.4">
@@ -11680,7 +11685,7 @@
         <v>977</v>
       </c>
       <c r="B977" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="978" spans="1:2" x14ac:dyDescent="0.4">
@@ -11688,7 +11693,7 @@
         <v>978</v>
       </c>
       <c r="B978" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="979" spans="1:2" x14ac:dyDescent="0.4">
@@ -11696,7 +11701,7 @@
         <v>979</v>
       </c>
       <c r="B979" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="980" spans="1:2" x14ac:dyDescent="0.4">
@@ -11704,7 +11709,7 @@
         <v>980</v>
       </c>
       <c r="B980" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="981" spans="1:2" x14ac:dyDescent="0.4">
@@ -11712,7 +11717,7 @@
         <v>981</v>
       </c>
       <c r="B981" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="982" spans="1:2" x14ac:dyDescent="0.4">
@@ -11720,7 +11725,7 @@
         <v>982</v>
       </c>
       <c r="B982" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="983" spans="1:2" x14ac:dyDescent="0.4">
@@ -11728,7 +11733,7 @@
         <v>983</v>
       </c>
       <c r="B983" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="984" spans="1:2" x14ac:dyDescent="0.4">
@@ -11736,7 +11741,7 @@
         <v>984</v>
       </c>
       <c r="B984" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="985" spans="1:2" x14ac:dyDescent="0.4">
@@ -11744,7 +11749,7 @@
         <v>985</v>
       </c>
       <c r="B985" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="986" spans="1:2" x14ac:dyDescent="0.4">
@@ -11752,7 +11757,7 @@
         <v>986</v>
       </c>
       <c r="B986" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="987" spans="1:2" x14ac:dyDescent="0.4">
@@ -11760,7 +11765,7 @@
         <v>987</v>
       </c>
       <c r="B987" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="988" spans="1:2" x14ac:dyDescent="0.4">
@@ -11768,7 +11773,7 @@
         <v>988</v>
       </c>
       <c r="B988" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="989" spans="1:2" x14ac:dyDescent="0.4">
@@ -11776,7 +11781,7 @@
         <v>989</v>
       </c>
       <c r="B989" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="990" spans="1:2" x14ac:dyDescent="0.4">
@@ -11784,7 +11789,7 @@
         <v>990</v>
       </c>
       <c r="B990" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="991" spans="1:2" x14ac:dyDescent="0.4">
@@ -11792,7 +11797,7 @@
         <v>991</v>
       </c>
       <c r="B991" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="992" spans="1:2" x14ac:dyDescent="0.4">
@@ -11800,7 +11805,7 @@
         <v>992</v>
       </c>
       <c r="B992" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="993" spans="1:2" x14ac:dyDescent="0.4">
@@ -11808,7 +11813,7 @@
         <v>993</v>
       </c>
       <c r="B993" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="994" spans="1:2" x14ac:dyDescent="0.4">
@@ -11816,7 +11821,7 @@
         <v>994</v>
       </c>
       <c r="B994" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="995" spans="1:2" x14ac:dyDescent="0.4">
@@ -11824,7 +11829,7 @@
         <v>995</v>
       </c>
       <c r="B995" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="996" spans="1:2" x14ac:dyDescent="0.4">
@@ -11832,7 +11837,7 @@
         <v>996</v>
       </c>
       <c r="B996" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="997" spans="1:2" x14ac:dyDescent="0.4">
@@ -11840,7 +11845,7 @@
         <v>997</v>
       </c>
       <c r="B997" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="998" spans="1:2" x14ac:dyDescent="0.4">
@@ -11848,7 +11853,7 @@
         <v>998</v>
       </c>
       <c r="B998" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="999" spans="1:2" x14ac:dyDescent="0.4">
@@ -11856,7 +11861,7 @@
         <v>999</v>
       </c>
       <c r="B999" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="1000" spans="1:2" x14ac:dyDescent="0.4">
@@ -11864,7 +11869,7 @@
         <v>1000</v>
       </c>
       <c r="B1000" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="1001" spans="1:2" x14ac:dyDescent="0.4">
@@ -11872,7 +11877,7 @@
         <v>1001</v>
       </c>
       <c r="B1001" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="1002" spans="1:2" x14ac:dyDescent="0.4">
@@ -11880,7 +11885,7 @@
         <v>1002</v>
       </c>
       <c r="B1002" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="1003" spans="1:2" x14ac:dyDescent="0.4">
@@ -11888,7 +11893,7 @@
         <v>1003</v>
       </c>
       <c r="B1003" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="1004" spans="1:2" x14ac:dyDescent="0.4">
@@ -11896,7 +11901,7 @@
         <v>1004</v>
       </c>
       <c r="B1004" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="1005" spans="1:2" x14ac:dyDescent="0.4">
@@ -11904,7 +11909,7 @@
         <v>1005</v>
       </c>
       <c r="B1005" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="1006" spans="1:2" x14ac:dyDescent="0.4">
@@ -11912,7 +11917,7 @@
         <v>1006</v>
       </c>
       <c r="B1006" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="1007" spans="1:2" x14ac:dyDescent="0.4">
@@ -11920,7 +11925,7 @@
         <v>1007</v>
       </c>
       <c r="B1007" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="1008" spans="1:2" x14ac:dyDescent="0.4">
@@ -11928,7 +11933,7 @@
         <v>1008</v>
       </c>
       <c r="B1008" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="1009" spans="1:2" x14ac:dyDescent="0.4">
@@ -11936,7 +11941,7 @@
         <v>1009</v>
       </c>
       <c r="B1009" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="1010" spans="1:2" x14ac:dyDescent="0.4">
@@ -11944,7 +11949,7 @@
         <v>1010</v>
       </c>
       <c r="B1010" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="1011" spans="1:2" x14ac:dyDescent="0.4">
@@ -11952,7 +11957,7 @@
         <v>1011</v>
       </c>
       <c r="B1011" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="1012" spans="1:2" x14ac:dyDescent="0.4">
@@ -11960,7 +11965,7 @@
         <v>1012</v>
       </c>
       <c r="B1012" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="1013" spans="1:2" x14ac:dyDescent="0.4">
@@ -11968,7 +11973,7 @@
         <v>1013</v>
       </c>
       <c r="B1013" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="1014" spans="1:2" x14ac:dyDescent="0.4">
@@ -11976,7 +11981,7 @@
         <v>1014</v>
       </c>
       <c r="B1014" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="1015" spans="1:2" x14ac:dyDescent="0.4">
@@ -11984,7 +11989,7 @@
         <v>1015</v>
       </c>
       <c r="B1015" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="1016" spans="1:2" x14ac:dyDescent="0.4">
@@ -11992,7 +11997,7 @@
         <v>1016</v>
       </c>
       <c r="B1016" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="1017" spans="1:2" x14ac:dyDescent="0.4">
@@ -12000,7 +12005,7 @@
         <v>1017</v>
       </c>
       <c r="B1017" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="1018" spans="1:2" x14ac:dyDescent="0.4">
@@ -12008,7 +12013,7 @@
         <v>1018</v>
       </c>
       <c r="B1018" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="1019" spans="1:2" x14ac:dyDescent="0.4">
@@ -12016,7 +12021,7 @@
         <v>1019</v>
       </c>
       <c r="B1019" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="1020" spans="1:2" x14ac:dyDescent="0.4">
@@ -12024,7 +12029,7 @@
         <v>1020</v>
       </c>
       <c r="B1020" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="1021" spans="1:2" x14ac:dyDescent="0.4">
@@ -12032,7 +12037,7 @@
         <v>1021</v>
       </c>
       <c r="B1021" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="1022" spans="1:2" x14ac:dyDescent="0.4">
@@ -12040,7 +12045,7 @@
         <v>1022</v>
       </c>
       <c r="B1022" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="1023" spans="1:2" x14ac:dyDescent="0.4">
@@ -12048,7 +12053,7 @@
         <v>1023</v>
       </c>
       <c r="B1023" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="1024" spans="1:2" x14ac:dyDescent="0.4">
@@ -12056,7 +12061,7 @@
         <v>1024</v>
       </c>
       <c r="B1024" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="1025" spans="1:2" x14ac:dyDescent="0.4">
@@ -12064,7 +12069,7 @@
         <v>1025</v>
       </c>
       <c r="B1025" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="1026" spans="1:2" x14ac:dyDescent="0.4">
@@ -12072,7 +12077,7 @@
         <v>1026</v>
       </c>
       <c r="B1026" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="1027" spans="1:2" x14ac:dyDescent="0.4">
@@ -12080,7 +12085,7 @@
         <v>1027</v>
       </c>
       <c r="B1027" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="1028" spans="1:2" x14ac:dyDescent="0.4">
@@ -12088,7 +12093,7 @@
         <v>1028</v>
       </c>
       <c r="B1028" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1029" spans="1:2" x14ac:dyDescent="0.4">
@@ -12096,7 +12101,7 @@
         <v>1029</v>
       </c>
       <c r="B1029" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="1030" spans="1:2" x14ac:dyDescent="0.4">
@@ -12104,7 +12109,7 @@
         <v>1030</v>
       </c>
       <c r="B1030" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="1031" spans="1:2" x14ac:dyDescent="0.4">
@@ -12112,7 +12117,7 @@
         <v>1031</v>
       </c>
       <c r="B1031" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="1032" spans="1:2" x14ac:dyDescent="0.4">
@@ -12120,7 +12125,7 @@
         <v>1032</v>
       </c>
       <c r="B1032" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="1033" spans="1:2" x14ac:dyDescent="0.4">
@@ -12128,7 +12133,7 @@
         <v>1033</v>
       </c>
       <c r="B1033" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="1034" spans="1:2" x14ac:dyDescent="0.4">
@@ -12136,7 +12141,7 @@
         <v>1034</v>
       </c>
       <c r="B1034" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="1035" spans="1:2" x14ac:dyDescent="0.4">
@@ -12144,7 +12149,7 @@
         <v>1035</v>
       </c>
       <c r="B1035" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="1036" spans="1:2" x14ac:dyDescent="0.4">
@@ -12152,7 +12157,7 @@
         <v>1036</v>
       </c>
       <c r="B1036" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="1037" spans="1:2" x14ac:dyDescent="0.4">
@@ -12160,7 +12165,7 @@
         <v>1037</v>
       </c>
       <c r="B1037" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="1038" spans="1:2" x14ac:dyDescent="0.4">
@@ -12168,7 +12173,7 @@
         <v>1038</v>
       </c>
       <c r="B1038" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="1039" spans="1:2" x14ac:dyDescent="0.4">
@@ -12176,7 +12181,7 @@
         <v>1039</v>
       </c>
       <c r="B1039" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="1040" spans="1:2" x14ac:dyDescent="0.4">
@@ -12184,7 +12189,7 @@
         <v>1040</v>
       </c>
       <c r="B1040" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="1041" spans="1:2" x14ac:dyDescent="0.4">
@@ -12192,7 +12197,7 @@
         <v>1041</v>
       </c>
       <c r="B1041" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="1042" spans="1:2" x14ac:dyDescent="0.4">
@@ -12200,7 +12205,7 @@
         <v>1042</v>
       </c>
       <c r="B1042" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1043" spans="1:2" x14ac:dyDescent="0.4">
@@ -12208,7 +12213,7 @@
         <v>1043</v>
       </c>
       <c r="B1043" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="1044" spans="1:2" x14ac:dyDescent="0.4">
@@ -12216,7 +12221,7 @@
         <v>1044</v>
       </c>
       <c r="B1044" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="1045" spans="1:2" x14ac:dyDescent="0.4">
@@ -12224,7 +12229,7 @@
         <v>1045</v>
       </c>
       <c r="B1045" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="1046" spans="1:2" x14ac:dyDescent="0.4">
@@ -12232,7 +12237,7 @@
         <v>1046</v>
       </c>
       <c r="B1046" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="1047" spans="1:2" x14ac:dyDescent="0.4">
@@ -12240,7 +12245,7 @@
         <v>1047</v>
       </c>
       <c r="B1047" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="1048" spans="1:2" x14ac:dyDescent="0.4">
@@ -12248,7 +12253,7 @@
         <v>1048</v>
       </c>
       <c r="B1048" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="1049" spans="1:2" x14ac:dyDescent="0.4">
@@ -12256,7 +12261,7 @@
         <v>1049</v>
       </c>
       <c r="B1049" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="1050" spans="1:2" x14ac:dyDescent="0.4">
@@ -12264,7 +12269,7 @@
         <v>1050</v>
       </c>
       <c r="B1050" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="1051" spans="1:2" x14ac:dyDescent="0.4">
@@ -12272,7 +12277,7 @@
         <v>1051</v>
       </c>
       <c r="B1051" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="1052" spans="1:2" x14ac:dyDescent="0.4">
@@ -12280,7 +12285,7 @@
         <v>1052</v>
       </c>
       <c r="B1052" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="1053" spans="1:2" x14ac:dyDescent="0.4">
@@ -12288,7 +12293,7 @@
         <v>1053</v>
       </c>
       <c r="B1053" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="1054" spans="1:2" x14ac:dyDescent="0.4">
@@ -12296,7 +12301,7 @@
         <v>1054</v>
       </c>
       <c r="B1054" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="1055" spans="1:2" x14ac:dyDescent="0.4">
@@ -12304,7 +12309,7 @@
         <v>1055</v>
       </c>
       <c r="B1055" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="1056" spans="1:2" x14ac:dyDescent="0.4">
@@ -12312,7 +12317,7 @@
         <v>1056</v>
       </c>
       <c r="B1056" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="1057" spans="1:2" x14ac:dyDescent="0.4">
@@ -12320,7 +12325,7 @@
         <v>1057</v>
       </c>
       <c r="B1057" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="1058" spans="1:2" x14ac:dyDescent="0.4">
@@ -12328,7 +12333,7 @@
         <v>1058</v>
       </c>
       <c r="B1058" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="1059" spans="1:2" x14ac:dyDescent="0.4">
@@ -12336,7 +12341,7 @@
         <v>1059</v>
       </c>
       <c r="B1059" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="1060" spans="1:2" x14ac:dyDescent="0.4">
@@ -12344,7 +12349,7 @@
         <v>1060</v>
       </c>
       <c r="B1060" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="1061" spans="1:2" x14ac:dyDescent="0.4">
@@ -12352,7 +12357,7 @@
         <v>1061</v>
       </c>
       <c r="B1061" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="1062" spans="1:2" x14ac:dyDescent="0.4">
@@ -12360,7 +12365,7 @@
         <v>1062</v>
       </c>
       <c r="B1062" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="1063" spans="1:2" x14ac:dyDescent="0.4">
@@ -12368,7 +12373,7 @@
         <v>1063</v>
       </c>
       <c r="B1063" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="1064" spans="1:2" x14ac:dyDescent="0.4">
@@ -12376,7 +12381,7 @@
         <v>1064</v>
       </c>
       <c r="B1064" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="1065" spans="1:2" x14ac:dyDescent="0.4">
@@ -12384,7 +12389,7 @@
         <v>1065</v>
       </c>
       <c r="B1065" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="1066" spans="1:2" x14ac:dyDescent="0.4">
@@ -12392,7 +12397,7 @@
         <v>1066</v>
       </c>
       <c r="B1066" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="1067" spans="1:2" x14ac:dyDescent="0.4">
@@ -12400,7 +12405,7 @@
         <v>1067</v>
       </c>
       <c r="B1067" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="1068" spans="1:2" x14ac:dyDescent="0.4">
@@ -12408,7 +12413,7 @@
         <v>1068</v>
       </c>
       <c r="B1068" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="1069" spans="1:2" x14ac:dyDescent="0.4">
@@ -12416,7 +12421,7 @@
         <v>1069</v>
       </c>
       <c r="B1069" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="1070" spans="1:2" x14ac:dyDescent="0.4">
@@ -12424,7 +12429,7 @@
         <v>1070</v>
       </c>
       <c r="B1070" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="1071" spans="1:2" x14ac:dyDescent="0.4">
@@ -12432,7 +12437,7 @@
         <v>1071</v>
       </c>
       <c r="B1071" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="1072" spans="1:2" x14ac:dyDescent="0.4">
@@ -12440,7 +12445,7 @@
         <v>1072</v>
       </c>
       <c r="B1072" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="1073" spans="1:2" x14ac:dyDescent="0.4">
@@ -12448,7 +12453,7 @@
         <v>1073</v>
       </c>
       <c r="B1073" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="1074" spans="1:2" x14ac:dyDescent="0.4">
@@ -12456,7 +12461,7 @@
         <v>1074</v>
       </c>
       <c r="B1074" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="1075" spans="1:2" x14ac:dyDescent="0.4">
@@ -12464,7 +12469,7 @@
         <v>1075</v>
       </c>
       <c r="B1075" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="1076" spans="1:2" x14ac:dyDescent="0.4">
@@ -12472,7 +12477,7 @@
         <v>1076</v>
       </c>
       <c r="B1076" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="1077" spans="1:2" x14ac:dyDescent="0.4">
@@ -12480,7 +12485,7 @@
         <v>1077</v>
       </c>
       <c r="B1077" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="1078" spans="1:2" x14ac:dyDescent="0.4">
@@ -12488,7 +12493,7 @@
         <v>1078</v>
       </c>
       <c r="B1078" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="1079" spans="1:2" x14ac:dyDescent="0.4">
@@ -12496,7 +12501,7 @@
         <v>1079</v>
       </c>
       <c r="B1079" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="1080" spans="1:2" x14ac:dyDescent="0.4">
@@ -12504,7 +12509,7 @@
         <v>1080</v>
       </c>
       <c r="B1080" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="1081" spans="1:2" x14ac:dyDescent="0.4">
@@ -12512,7 +12517,7 @@
         <v>1081</v>
       </c>
       <c r="B1081" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="1082" spans="1:2" x14ac:dyDescent="0.4">
@@ -12520,7 +12525,7 @@
         <v>1082</v>
       </c>
       <c r="B1082" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="1083" spans="1:2" x14ac:dyDescent="0.4">
@@ -12528,7 +12533,7 @@
         <v>1083</v>
       </c>
       <c r="B1083" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="1084" spans="1:2" x14ac:dyDescent="0.4">
@@ -12536,7 +12541,7 @@
         <v>1084</v>
       </c>
       <c r="B1084" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="1085" spans="1:2" x14ac:dyDescent="0.4">
@@ -12544,7 +12549,7 @@
         <v>1085</v>
       </c>
       <c r="B1085" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="1086" spans="1:2" x14ac:dyDescent="0.4">
@@ -12552,7 +12557,7 @@
         <v>1086</v>
       </c>
       <c r="B1086" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="1087" spans="1:2" x14ac:dyDescent="0.4">
@@ -12560,7 +12565,7 @@
         <v>1087</v>
       </c>
       <c r="B1087" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="1088" spans="1:2" x14ac:dyDescent="0.4">
@@ -12568,7 +12573,7 @@
         <v>1088</v>
       </c>
       <c r="B1088" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="1089" spans="1:2" x14ac:dyDescent="0.4">
@@ -12576,7 +12581,7 @@
         <v>1089</v>
       </c>
       <c r="B1089" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="1090" spans="1:2" x14ac:dyDescent="0.4">
@@ -12584,7 +12589,7 @@
         <v>1090</v>
       </c>
       <c r="B1090" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="1091" spans="1:2" x14ac:dyDescent="0.4">
@@ -12592,7 +12597,7 @@
         <v>1091</v>
       </c>
       <c r="B1091" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="1092" spans="1:2" x14ac:dyDescent="0.4">
@@ -12600,7 +12605,7 @@
         <v>1092</v>
       </c>
       <c r="B1092" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="1093" spans="1:2" x14ac:dyDescent="0.4">
@@ -12608,7 +12613,7 @@
         <v>1093</v>
       </c>
       <c r="B1093" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="1094" spans="1:2" x14ac:dyDescent="0.4">
@@ -12616,7 +12621,7 @@
         <v>1094</v>
       </c>
       <c r="B1094" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="1095" spans="1:2" x14ac:dyDescent="0.4">
@@ -12624,7 +12629,7 @@
         <v>1095</v>
       </c>
       <c r="B1095" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="1096" spans="1:2" x14ac:dyDescent="0.4">
@@ -12632,7 +12637,7 @@
         <v>1096</v>
       </c>
       <c r="B1096" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="1097" spans="1:2" x14ac:dyDescent="0.4">
@@ -12640,7 +12645,7 @@
         <v>1097</v>
       </c>
       <c r="B1097" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="1098" spans="1:2" x14ac:dyDescent="0.4">
@@ -12648,7 +12653,7 @@
         <v>1098</v>
       </c>
       <c r="B1098" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="1099" spans="1:2" x14ac:dyDescent="0.4">
@@ -12656,7 +12661,7 @@
         <v>1099</v>
       </c>
       <c r="B1099" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="1100" spans="1:2" x14ac:dyDescent="0.4">
@@ -12664,7 +12669,7 @@
         <v>1100</v>
       </c>
       <c r="B1100" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="1101" spans="1:2" x14ac:dyDescent="0.4">
@@ -12672,7 +12677,7 @@
         <v>1101</v>
       </c>
       <c r="B1101" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="1102" spans="1:2" x14ac:dyDescent="0.4">
@@ -12680,7 +12685,7 @@
         <v>1102</v>
       </c>
       <c r="B1102" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="1103" spans="1:2" x14ac:dyDescent="0.4">
@@ -12688,7 +12693,7 @@
         <v>1103</v>
       </c>
       <c r="B1103" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="1104" spans="1:2" x14ac:dyDescent="0.4">
@@ -12696,7 +12701,7 @@
         <v>1104</v>
       </c>
       <c r="B1104" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="1105" spans="1:2" x14ac:dyDescent="0.4">
@@ -12704,7 +12709,7 @@
         <v>1105</v>
       </c>
       <c r="B1105" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="1106" spans="1:2" x14ac:dyDescent="0.4">
@@ -12712,7 +12717,7 @@
         <v>1106</v>
       </c>
       <c r="B1106" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="1107" spans="1:2" x14ac:dyDescent="0.4">
@@ -12720,7 +12725,7 @@
         <v>1107</v>
       </c>
       <c r="B1107" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="1108" spans="1:2" x14ac:dyDescent="0.4">
@@ -12728,7 +12733,7 @@
         <v>1108</v>
       </c>
       <c r="B1108" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="1109" spans="1:2" x14ac:dyDescent="0.4">
@@ -12736,7 +12741,7 @@
         <v>1109</v>
       </c>
       <c r="B1109" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="1110" spans="1:2" x14ac:dyDescent="0.4">
@@ -12744,7 +12749,7 @@
         <v>1110</v>
       </c>
       <c r="B1110" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="1111" spans="1:2" x14ac:dyDescent="0.4">
@@ -12752,7 +12757,7 @@
         <v>1111</v>
       </c>
       <c r="B1111" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="1112" spans="1:2" x14ac:dyDescent="0.4">
@@ -12760,7 +12765,7 @@
         <v>1112</v>
       </c>
       <c r="B1112" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="1113" spans="1:2" x14ac:dyDescent="0.4">
@@ -12768,7 +12773,7 @@
         <v>1113</v>
       </c>
       <c r="B1113" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="1114" spans="1:2" x14ac:dyDescent="0.4">
@@ -12776,7 +12781,7 @@
         <v>1114</v>
       </c>
       <c r="B1114" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="1115" spans="1:2" x14ac:dyDescent="0.4">
@@ -12784,7 +12789,7 @@
         <v>1115</v>
       </c>
       <c r="B1115" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="1116" spans="1:2" x14ac:dyDescent="0.4">
@@ -12792,7 +12797,7 @@
         <v>1116</v>
       </c>
       <c r="B1116" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="1117" spans="1:2" x14ac:dyDescent="0.4">
@@ -12800,7 +12805,7 @@
         <v>1117</v>
       </c>
       <c r="B1117" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="1118" spans="1:2" x14ac:dyDescent="0.4">
@@ -12808,7 +12813,7 @@
         <v>1118</v>
       </c>
       <c r="B1118" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="1119" spans="1:2" x14ac:dyDescent="0.4">
@@ -12816,7 +12821,7 @@
         <v>1119</v>
       </c>
       <c r="B1119" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="1120" spans="1:2" x14ac:dyDescent="0.4">
@@ -12824,7 +12829,7 @@
         <v>1120</v>
       </c>
       <c r="B1120" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="1121" spans="1:2" x14ac:dyDescent="0.4">
@@ -12832,7 +12837,7 @@
         <v>1121</v>
       </c>
       <c r="B1121" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="1122" spans="1:2" x14ac:dyDescent="0.4">
@@ -12840,7 +12845,7 @@
         <v>1122</v>
       </c>
       <c r="B1122" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="1123" spans="1:2" x14ac:dyDescent="0.4">
@@ -12848,7 +12853,7 @@
         <v>1123</v>
       </c>
       <c r="B1123" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="1124" spans="1:2" x14ac:dyDescent="0.4">
@@ -12856,7 +12861,7 @@
         <v>1124</v>
       </c>
       <c r="B1124" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="1125" spans="1:2" x14ac:dyDescent="0.4">
@@ -12864,7 +12869,7 @@
         <v>1125</v>
       </c>
       <c r="B1125" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="1126" spans="1:2" x14ac:dyDescent="0.4">
@@ -12872,7 +12877,7 @@
         <v>1126</v>
       </c>
       <c r="B1126" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1127" spans="1:2" x14ac:dyDescent="0.4">
@@ -12880,7 +12885,7 @@
         <v>1127</v>
       </c>
       <c r="B1127" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1128" spans="1:2" x14ac:dyDescent="0.4">
@@ -12888,7 +12893,7 @@
         <v>1128</v>
       </c>
       <c r="B1128" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1129" spans="1:2" x14ac:dyDescent="0.4">
@@ -12896,7 +12901,7 @@
         <v>1129</v>
       </c>
       <c r="B1129" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="1130" spans="1:2" x14ac:dyDescent="0.4">
@@ -12904,7 +12909,7 @@
         <v>1130</v>
       </c>
       <c r="B1130" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="1131" spans="1:2" x14ac:dyDescent="0.4">
@@ -12912,7 +12917,7 @@
         <v>1131</v>
       </c>
       <c r="B1131" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="1132" spans="1:2" x14ac:dyDescent="0.4">
@@ -12920,7 +12925,7 @@
         <v>1132</v>
       </c>
       <c r="B1132" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="1133" spans="1:2" x14ac:dyDescent="0.4">
@@ -12928,7 +12933,7 @@
         <v>1133</v>
       </c>
       <c r="B1133" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1134" spans="1:2" x14ac:dyDescent="0.4">
@@ -12936,7 +12941,7 @@
         <v>1134</v>
       </c>
       <c r="B1134" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1135" spans="1:2" x14ac:dyDescent="0.4">
@@ -12944,7 +12949,7 @@
         <v>1135</v>
       </c>
       <c r="B1135" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1136" spans="1:2" x14ac:dyDescent="0.4">
@@ -12952,7 +12957,7 @@
         <v>1136</v>
       </c>
       <c r="B1136" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1137" spans="1:2" x14ac:dyDescent="0.4">
@@ -12960,7 +12965,7 @@
         <v>1137</v>
       </c>
       <c r="B1137" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="1138" spans="1:2" x14ac:dyDescent="0.4">
@@ -12968,7 +12973,7 @@
         <v>1138</v>
       </c>
       <c r="B1138" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="1139" spans="1:2" x14ac:dyDescent="0.4">
@@ -12976,7 +12981,7 @@
         <v>1139</v>
       </c>
       <c r="B1139" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1140" spans="1:2" x14ac:dyDescent="0.4">
@@ -12984,7 +12989,7 @@
         <v>1140</v>
       </c>
       <c r="B1140" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="1141" spans="1:2" x14ac:dyDescent="0.4">
@@ -12992,7 +12997,7 @@
         <v>1141</v>
       </c>
       <c r="B1141" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="1142" spans="1:2" x14ac:dyDescent="0.4">
@@ -13000,7 +13005,7 @@
         <v>1142</v>
       </c>
       <c r="B1142" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="1143" spans="1:2" x14ac:dyDescent="0.4">
@@ -13008,7 +13013,7 @@
         <v>1143</v>
       </c>
       <c r="B1143" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="1144" spans="1:2" x14ac:dyDescent="0.4">
@@ -13016,7 +13021,7 @@
         <v>1144</v>
       </c>
       <c r="B1144" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="1145" spans="1:2" x14ac:dyDescent="0.4">
@@ -13024,7 +13029,7 @@
         <v>1145</v>
       </c>
       <c r="B1145" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="1146" spans="1:2" x14ac:dyDescent="0.4">
@@ -13032,7 +13037,7 @@
         <v>1146</v>
       </c>
       <c r="B1146" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="1147" spans="1:2" x14ac:dyDescent="0.4">
@@ -13040,7 +13045,7 @@
         <v>1147</v>
       </c>
       <c r="B1147" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="1148" spans="1:2" x14ac:dyDescent="0.4">
@@ -13048,7 +13053,7 @@
         <v>1148</v>
       </c>
       <c r="B1148" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="1149" spans="1:2" x14ac:dyDescent="0.4">
@@ -13056,7 +13061,7 @@
         <v>1149</v>
       </c>
       <c r="B1149" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="1150" spans="1:2" x14ac:dyDescent="0.4">
@@ -13064,7 +13069,7 @@
         <v>1150</v>
       </c>
       <c r="B1150" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1151" spans="1:2" x14ac:dyDescent="0.4">
@@ -13072,7 +13077,7 @@
         <v>1151</v>
       </c>
       <c r="B1151" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="1152" spans="1:2" x14ac:dyDescent="0.4">
@@ -13080,7 +13085,7 @@
         <v>1152</v>
       </c>
       <c r="B1152" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="1153" spans="1:2" x14ac:dyDescent="0.4">
@@ -13088,7 +13093,7 @@
         <v>1153</v>
       </c>
       <c r="B1153" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="1154" spans="1:2" x14ac:dyDescent="0.4">
@@ -13096,7 +13101,7 @@
         <v>1154</v>
       </c>
       <c r="B1154" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="1155" spans="1:2" x14ac:dyDescent="0.4">
@@ -13104,7 +13109,7 @@
         <v>1155</v>
       </c>
       <c r="B1155" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
   </sheetData>
